--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\762-impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97341DFB-C9CD-47C5-806D-6CA648AAC719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307B50BB-9245-41C2-93A3-5EBFC18B82C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29445" yWindow="2115" windowWidth="20745" windowHeight="10515" xr2:uid="{37BDFEDE-B0AD-4CF0-AC3D-1AFBC0ABC248}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" xr2:uid="{37BDFEDE-B0AD-4CF0-AC3D-1AFBC0ABC248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -1,19 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\762-impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somet\Documents\Engineering\PartIV\762\762-impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBAF1BA-6848-49A8-BB56-E1F76CEDAD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D2B1C5-6BA9-4CEB-AC9A-A6499397D000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26535" yWindow="2265" windowWidth="18000" windowHeight="9270" xr2:uid="{3CDFFA36-584A-470C-B5D1-516ABB3BF4E5}"/>
+    <workbookView xWindow="630" yWindow="5535" windowWidth="18285" windowHeight="15345" firstSheet="9" activeTab="16" xr2:uid="{EF873D33-9ABD-4BA9-B6A5-808EB6454003}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alfa" sheetId="19" r:id="rId1"/>
+    <sheet name="Audi" sheetId="27" r:id="rId2"/>
+    <sheet name="Suzuki" sheetId="33" r:id="rId3"/>
+    <sheet name="BMW" sheetId="18" r:id="rId4"/>
+    <sheet name="BYD" sheetId="17" r:id="rId5"/>
+    <sheet name="Citroen" sheetId="16" r:id="rId6"/>
+    <sheet name="Ford" sheetId="15" r:id="rId7"/>
+    <sheet name="Holden" sheetId="32" r:id="rId8"/>
+    <sheet name="Honda" sheetId="26" r:id="rId9"/>
+    <sheet name="Hyundai" sheetId="14" r:id="rId10"/>
+    <sheet name="Isuzu" sheetId="13" r:id="rId11"/>
+    <sheet name="Kia" sheetId="12" r:id="rId12"/>
+    <sheet name="Land" sheetId="11" r:id="rId13"/>
+    <sheet name="Jaguar" sheetId="31" r:id="rId14"/>
+    <sheet name="Jeep" sheetId="30" r:id="rId15"/>
+    <sheet name="Lexus" sheetId="29" r:id="rId16"/>
+    <sheet name="Mercedes-Benz" sheetId="20" r:id="rId17"/>
+    <sheet name="MG" sheetId="10" r:id="rId18"/>
+    <sheet name="Genesis" sheetId="23" r:id="rId19"/>
+    <sheet name="Mazda" sheetId="24" r:id="rId20"/>
+    <sheet name="MINI" sheetId="25" r:id="rId21"/>
+    <sheet name="Mitsubishi" sheetId="9" r:id="rId22"/>
+    <sheet name="Peugeot" sheetId="8" r:id="rId23"/>
+    <sheet name="Renault" sheetId="7" r:id="rId24"/>
+    <sheet name="Skoda" sheetId="6" r:id="rId25"/>
+    <sheet name="Tesla" sheetId="5" r:id="rId26"/>
+    <sheet name="Nissan" sheetId="22" r:id="rId27"/>
+    <sheet name="Porsche" sheetId="21" r:id="rId28"/>
+    <sheet name="Subaru" sheetId="28" r:id="rId29"/>
+    <sheet name="Toyota" sheetId="4" r:id="rId30"/>
+    <sheet name="Volkswagen" sheetId="3" r:id="rId31"/>
+    <sheet name="Volvo" sheetId="2" r:id="rId32"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="398">
   <si>
     <t>Make</t>
   </si>
@@ -528,26 +560,720 @@
   </si>
   <si>
     <t>SLK</t>
+  </si>
+  <si>
+    <t>XC60 2022</t>
+  </si>
+  <si>
+    <t>Multivan 2022</t>
+  </si>
+  <si>
+    <t>Prius 2022</t>
+  </si>
+  <si>
+    <t>Model 2022</t>
+  </si>
+  <si>
+    <t>Superb 2022</t>
+  </si>
+  <si>
+    <t>Octavia 2022</t>
+  </si>
+  <si>
+    <t>Megane 2022</t>
+  </si>
+  <si>
+    <t>Master 2022</t>
+  </si>
+  <si>
+    <t>Koleos 2022</t>
+  </si>
+  <si>
+    <t>Kadjar 2022</t>
+  </si>
+  <si>
+    <t>Arkana 2022</t>
+  </si>
+  <si>
+    <t>3008 2022</t>
+  </si>
+  <si>
+    <t>Triton 2022</t>
+  </si>
+  <si>
+    <t>Pajero 2022</t>
+  </si>
+  <si>
+    <t>Outlander 2022</t>
+  </si>
+  <si>
+    <t>Mirage 2022</t>
+  </si>
+  <si>
+    <t>Express 2022</t>
+  </si>
+  <si>
+    <t>Eclipse 2022</t>
+  </si>
+  <si>
+    <t>ASX 2022</t>
+  </si>
+  <si>
+    <t>HS 2022</t>
+  </si>
+  <si>
+    <t>Rover 2022</t>
+  </si>
+  <si>
+    <t>Sorento 2022</t>
+  </si>
+  <si>
+    <t>Niro 2022</t>
+  </si>
+  <si>
+    <t>MU-X 2022</t>
+  </si>
+  <si>
+    <t>D-Max 2022</t>
+  </si>
+  <si>
+    <t>Venue 2022</t>
+  </si>
+  <si>
+    <t>Tucson 2022</t>
+  </si>
+  <si>
+    <t>Santa 2022</t>
+  </si>
+  <si>
+    <t>Palisade 2022</t>
+  </si>
+  <si>
+    <t>Kona 2022</t>
+  </si>
+  <si>
+    <t>IONIQ 2022</t>
+  </si>
+  <si>
+    <t>Ioniq 2022</t>
+  </si>
+  <si>
+    <t>i30 2022</t>
+  </si>
+  <si>
+    <t>i20 2022</t>
+  </si>
+  <si>
+    <t>Transit 2022</t>
+  </si>
+  <si>
+    <t>Puma 2022</t>
+  </si>
+  <si>
+    <t>Escape 2022</t>
+  </si>
+  <si>
+    <t>C5 2022</t>
+  </si>
+  <si>
+    <t>Extended 2022</t>
+  </si>
+  <si>
+    <t>60KW 2022</t>
+  </si>
+  <si>
+    <t>X5 2022</t>
+  </si>
+  <si>
+    <t>Romeo 2022</t>
+  </si>
+  <si>
+    <t>T-Roc 2021</t>
+  </si>
+  <si>
+    <t>Yaris 2021</t>
+  </si>
+  <si>
+    <t>Prius 2021</t>
+  </si>
+  <si>
+    <t>Land 2021</t>
+  </si>
+  <si>
+    <t>Superb 2021</t>
+  </si>
+  <si>
+    <t>Koleos 2021</t>
+  </si>
+  <si>
+    <t>508 2021</t>
+  </si>
+  <si>
+    <t>Outlander 2021</t>
+  </si>
+  <si>
+    <t>Eclipse 2021</t>
+  </si>
+  <si>
+    <t>HS 2021</t>
+  </si>
+  <si>
+    <t>E 2021</t>
+  </si>
+  <si>
+    <t>Sorento 2021</t>
+  </si>
+  <si>
+    <t>D-Max 2021</t>
+  </si>
+  <si>
+    <t>Venue 2021</t>
+  </si>
+  <si>
+    <t>Tucson 2021</t>
+  </si>
+  <si>
+    <t>Staria 2021</t>
+  </si>
+  <si>
+    <t>Transit 2021</t>
+  </si>
+  <si>
+    <t>X5 2021</t>
+  </si>
+  <si>
+    <t>530e 2021</t>
+  </si>
+  <si>
+    <t>Supra 2020</t>
+  </si>
+  <si>
+    <t>RAV4 2020</t>
+  </si>
+  <si>
+    <t>Prius 2020</t>
+  </si>
+  <si>
+    <t>Hilux 2020</t>
+  </si>
+  <si>
+    <t>Cayenne 2020</t>
+  </si>
+  <si>
+    <t>Leaf 2020</t>
+  </si>
+  <si>
+    <t>Juke 2020</t>
+  </si>
+  <si>
+    <t>Outlander 2020</t>
+  </si>
+  <si>
+    <t>Cross 2020</t>
+  </si>
+  <si>
+    <t>G70 2020</t>
+  </si>
+  <si>
+    <t>530e 2020</t>
+  </si>
+  <si>
+    <t>V60 2019</t>
+  </si>
+  <si>
+    <t>RAV4 2019</t>
+  </si>
+  <si>
+    <t>Hilux 2019</t>
+  </si>
+  <si>
+    <t>Fortuner 2019</t>
+  </si>
+  <si>
+    <t>Corolla 2019</t>
+  </si>
+  <si>
+    <t>Koleos 2019</t>
+  </si>
+  <si>
+    <t>Panamera 2019</t>
+  </si>
+  <si>
+    <t>Cayenne 2019</t>
+  </si>
+  <si>
+    <t>NV350 2019</t>
+  </si>
+  <si>
+    <t>Leaf 2019</t>
+  </si>
+  <si>
+    <t>Outlander 2019</t>
+  </si>
+  <si>
+    <t>ASX 2019</t>
+  </si>
+  <si>
+    <t>CX-30 2019</t>
+  </si>
+  <si>
+    <t>3 2019</t>
+  </si>
+  <si>
+    <t>Rover 2019</t>
+  </si>
+  <si>
+    <t>Seltos 2019</t>
+  </si>
+  <si>
+    <t>Niro 2019</t>
+  </si>
+  <si>
+    <t>Tucson 2019</t>
+  </si>
+  <si>
+    <t>Santa 2019</t>
+  </si>
+  <si>
+    <t>Accent 2019</t>
+  </si>
+  <si>
+    <t>Ranger 2019</t>
+  </si>
+  <si>
+    <t>Endura 2019</t>
+  </si>
+  <si>
+    <t>X2 2019</t>
+  </si>
+  <si>
+    <t>745e 2019</t>
+  </si>
+  <si>
+    <t>740e 2019</t>
+  </si>
+  <si>
+    <t>Golf 2018</t>
+  </si>
+  <si>
+    <t>Yaris 2018</t>
+  </si>
+  <si>
+    <t>Prius 2018</t>
+  </si>
+  <si>
+    <t>Land 2018</t>
+  </si>
+  <si>
+    <t>Hilux 2018</t>
+  </si>
+  <si>
+    <t>Highlander 2018</t>
+  </si>
+  <si>
+    <t>Hiace 2018</t>
+  </si>
+  <si>
+    <t>Fortuner 2018</t>
+  </si>
+  <si>
+    <t>Corolla 2018</t>
+  </si>
+  <si>
+    <t>C-HR 2018</t>
+  </si>
+  <si>
+    <t>Aqua 2018</t>
+  </si>
+  <si>
+    <t>NV350 2018</t>
+  </si>
+  <si>
+    <t>Leaf 2018</t>
+  </si>
+  <si>
+    <t>Outlander 2018</t>
+  </si>
+  <si>
+    <t>SE 2018</t>
+  </si>
+  <si>
+    <t>Countryman 2018</t>
+  </si>
+  <si>
+    <t>Cooper 2018</t>
+  </si>
+  <si>
+    <t>E 2018</t>
+  </si>
+  <si>
+    <t>Rover 2018</t>
+  </si>
+  <si>
+    <t>Tucson 2018</t>
+  </si>
+  <si>
+    <t>Santa 2018</t>
+  </si>
+  <si>
+    <t>Jazz 2018</t>
+  </si>
+  <si>
+    <t>740e 2018</t>
+  </si>
+  <si>
+    <t>Q2 2018</t>
+  </si>
+  <si>
+    <t>Yaris 2017</t>
+  </si>
+  <si>
+    <t>Vitz 2017</t>
+  </si>
+  <si>
+    <t>RAV4 2017</t>
+  </si>
+  <si>
+    <t>Prius 2017</t>
+  </si>
+  <si>
+    <t>Hilux 2017</t>
+  </si>
+  <si>
+    <t>C-HR 2017</t>
+  </si>
+  <si>
+    <t>XV 2017</t>
+  </si>
+  <si>
+    <t>Forester 2017</t>
+  </si>
+  <si>
+    <t>Koleos 2017</t>
+  </si>
+  <si>
+    <t>NV350 2017</t>
+  </si>
+  <si>
+    <t>Note 2017</t>
+  </si>
+  <si>
+    <t>Outlander 2017</t>
+  </si>
+  <si>
+    <t>Mirage 2017</t>
+  </si>
+  <si>
+    <t>S 2017</t>
+  </si>
+  <si>
+    <t>Countryman 2017</t>
+  </si>
+  <si>
+    <t>Cooper 2017</t>
+  </si>
+  <si>
+    <t>E 2017</t>
+  </si>
+  <si>
+    <t>C 2017</t>
+  </si>
+  <si>
+    <t>CX-3 2017</t>
+  </si>
+  <si>
+    <t>Santa 2017</t>
+  </si>
+  <si>
+    <t>X5 2017</t>
+  </si>
+  <si>
+    <t>740e 2017</t>
+  </si>
+  <si>
+    <t>530e 2017</t>
+  </si>
+  <si>
+    <t>330e 2017</t>
+  </si>
+  <si>
+    <t>Polo 2016</t>
+  </si>
+  <si>
+    <t>Passat 2016</t>
+  </si>
+  <si>
+    <t>Golf 2016</t>
+  </si>
+  <si>
+    <t>Land 2016</t>
+  </si>
+  <si>
+    <t>Aqua 2016</t>
+  </si>
+  <si>
+    <t>X-Trail 2016</t>
+  </si>
+  <si>
+    <t>Outlander 2016</t>
+  </si>
+  <si>
+    <t>C 2016</t>
+  </si>
+  <si>
+    <t>Sportage 2016</t>
+  </si>
+  <si>
+    <t>Tucson 2016</t>
+  </si>
+  <si>
+    <t>740e 2016</t>
+  </si>
+  <si>
+    <t>330e 2016</t>
+  </si>
+  <si>
+    <t>225xe 2016</t>
+  </si>
+  <si>
+    <t>S3 2016</t>
+  </si>
+  <si>
+    <t>A3 2016</t>
+  </si>
+  <si>
+    <t>Jetta 2015</t>
+  </si>
+  <si>
+    <t>Golf 2015</t>
+  </si>
+  <si>
+    <t>Prius 2015</t>
+  </si>
+  <si>
+    <t>Outback 2015</t>
+  </si>
+  <si>
+    <t>Macan 2015</t>
+  </si>
+  <si>
+    <t>Triton 2015</t>
+  </si>
+  <si>
+    <t>Outlander 2015</t>
+  </si>
+  <si>
+    <t>S 2015</t>
+  </si>
+  <si>
+    <t>C 2015</t>
+  </si>
+  <si>
+    <t>RC 2015</t>
+  </si>
+  <si>
+    <t>NX 2015</t>
+  </si>
+  <si>
+    <t>Cherokee 2015</t>
+  </si>
+  <si>
+    <t>XF 2015</t>
+  </si>
+  <si>
+    <t>Santa 2015</t>
+  </si>
+  <si>
+    <t>Vezel 2015</t>
+  </si>
+  <si>
+    <t>GRACE 2015</t>
+  </si>
+  <si>
+    <t>Colorado 2015</t>
+  </si>
+  <si>
+    <t>X5 2015</t>
+  </si>
+  <si>
+    <t>i8 2015</t>
+  </si>
+  <si>
+    <t>435i 2015</t>
+  </si>
+  <si>
+    <t>Q3 2015</t>
+  </si>
+  <si>
+    <t>A3 2015</t>
+  </si>
+  <si>
+    <t>Passat 2014</t>
+  </si>
+  <si>
+    <t>Prius 2014</t>
+  </si>
+  <si>
+    <t>Harrier 2014</t>
+  </si>
+  <si>
+    <t>Outlander 2014</t>
+  </si>
+  <si>
+    <t>CX-9 2014</t>
+  </si>
+  <si>
+    <t>Vezel 2014</t>
+  </si>
+  <si>
+    <t>X3 2014</t>
+  </si>
+  <si>
+    <t>Mini 2014</t>
+  </si>
+  <si>
+    <t>A4 2014</t>
+  </si>
+  <si>
+    <t>Tiguan 2013</t>
+  </si>
+  <si>
+    <t>Prius 2013</t>
+  </si>
+  <si>
+    <t>Hilux 2013</t>
+  </si>
+  <si>
+    <t>XV 2013</t>
+  </si>
+  <si>
+    <t>Navara 2013</t>
+  </si>
+  <si>
+    <t>RVR 2013</t>
+  </si>
+  <si>
+    <t>Outlander 2013</t>
+  </si>
+  <si>
+    <t>CLA 2013</t>
+  </si>
+  <si>
+    <t>A 2013</t>
+  </si>
+  <si>
+    <t>Rover 2013</t>
+  </si>
+  <si>
+    <t>Sorento 2013</t>
+  </si>
+  <si>
+    <t>Commodore 2013</t>
+  </si>
+  <si>
+    <t>X5 2013</t>
+  </si>
+  <si>
+    <t>116i 2013</t>
+  </si>
+  <si>
+    <t>XC60 2012</t>
+  </si>
+  <si>
+    <t>Golf 2012</t>
+  </si>
+  <si>
+    <t>Prius 2012</t>
+  </si>
+  <si>
+    <t>Aqua 2012</t>
+  </si>
+  <si>
+    <t>Pajero 2012</t>
+  </si>
+  <si>
+    <t>Lancer 2012</t>
+  </si>
+  <si>
+    <t>ML 2012</t>
+  </si>
+  <si>
+    <t>C 2012</t>
+  </si>
+  <si>
+    <t>LS 2012</t>
+  </si>
+  <si>
+    <t>GS 2012</t>
+  </si>
+  <si>
+    <t>Rover 2012</t>
+  </si>
+  <si>
+    <t>XF 2012</t>
+  </si>
+  <si>
+    <t>Santa 2012</t>
+  </si>
+  <si>
+    <t>X5 2012</t>
+  </si>
+  <si>
+    <t>X3 2012</t>
+  </si>
+  <si>
+    <t>116i 2012</t>
+  </si>
+  <si>
+    <t>Tiguan 2011</t>
+  </si>
+  <si>
+    <t>Polo 2011</t>
+  </si>
+  <si>
+    <t>RX 2011</t>
+  </si>
+  <si>
+    <t>Sportage 2011</t>
+  </si>
+  <si>
+    <t>XF 2011</t>
+  </si>
+  <si>
+    <t>Fit 2011</t>
+  </si>
+  <si>
+    <t>523i 2011</t>
+  </si>
+  <si>
+    <t>X-Trail 2009</t>
+  </si>
+  <si>
+    <t>Getz 2009</t>
+  </si>
+  <si>
+    <t>320i 2009</t>
+  </si>
+  <si>
+    <t>Grand 2007</t>
+  </si>
+  <si>
+    <t>525i 2006</t>
+  </si>
+  <si>
+    <t>SLK 2005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -569,17 +1295,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,7 +1317,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -890,14 +1612,3582 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E593E22-AC60-4FFF-B2E9-514E8994A9ED}">
-  <dimension ref="A1:D235"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FF281-E4F8-4EAA-976E-37CDBC6F9F9D}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2A650A-364B-4881-9A45-70D180AEFB7F}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04EEDBB-A41A-45AE-8D1F-E6A4A0B00156}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E77E71-B2FA-4473-BE9F-6489944E710A}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E59C4D9-414A-4A2A-A71F-B0A6A7D36268}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2811115C-1E8F-4CA4-BD72-A13B6E82108C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23466B28-94DA-4A62-A642-B8450D1D0BE5}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AD76F7-552A-4549-A435-C99FC2AC5B13}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E8588D-8D58-4BBE-8607-EA47F9D68A9E}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12">
+        <v>2005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DA5CB8-ABA3-45DD-B7D4-14A872F28C6D}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7537ED78-A93A-4979-85F4-FD27C3566EB6}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F47A31-7902-4359-8654-882072F6F34D}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6">
+        <v>2014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A605EA-8958-4129-B771-0BA078459C38}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4">
+        <v>2014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E246301-4622-4FF3-BE60-80FA89821BC1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6">
+        <v>2017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D1AAFD-FF16-46D0-8FC4-3A744A7711C1}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24">
+        <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A95CE8-E0C1-43E9-A379-A8820D1D0DAB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1">
+        <v>3008</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>508</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279DDB1E-F81D-4E55-976C-71EA49321E39}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C17195-8948-4AD1-BFCB-7DE92F635F15}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8C028A-69CF-4D0D-B816-98C151EABB67}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E00691-59EF-4B46-AFD3-71443C9E1BF0}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12ECA68F-17C6-4660-B3D3-0162DA558DD3}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>2015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEADDE5-E3C3-4D8D-B460-2320A8951275}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4">
+        <v>2013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA553B4-7627-480D-B169-2918F2A1CF29}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1">
+        <v>2007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4CEF2D-F6E0-48F2-B6F8-EF89AE383D12}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>287</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>288</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>371</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37">
+        <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3471423C-E35E-4D2F-B546-C02B2F22376D}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C2F4EC-91CE-41CA-BD2D-5BD6C54B2CAF}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2012</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF39AAF-16AF-41F7-AE84-85461339E13D}">
+  <dimension ref="A1:D235"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +5201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -925,7 +5215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -939,7 +5229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -953,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -967,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -981,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -995,7 +5285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1009,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +5313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +5341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +5383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +5397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1121,7 +5411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +5425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1149,7 +5439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +5453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1177,7 +5467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1191,7 +5481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1205,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1219,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1233,7 +5523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1247,7 +5537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1261,7 +5551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1275,7 +5565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1289,7 +5579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1303,7 +5593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1317,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1331,7 +5621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1345,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1359,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1373,7 +5663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1387,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1401,7 +5691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1415,7 +5705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1429,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1443,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1457,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1471,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1485,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -1499,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +5803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -1583,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +5901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +5915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -1639,7 +5929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1653,7 +5943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -1667,7 +5957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -1695,7 +5985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1709,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -1723,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -1737,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -1751,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -1765,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1793,7 +6083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1835,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -1849,7 +6139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1863,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -1877,7 +6167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -1891,7 +6181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1905,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -1919,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -1947,7 +6237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -1961,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1975,7 +6265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1989,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -2003,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -2017,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -2031,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -2045,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -2059,7 +6349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -2073,7 +6363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -2087,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2101,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2115,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -2129,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -2143,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -2157,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>39</v>
       </c>
@@ -2171,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -2185,7 +6475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -2199,7 +6489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>49</v>
       </c>
@@ -2213,7 +6503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -2227,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -2241,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -2255,7 +6545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -2269,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -2283,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2297,7 +6587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2311,7 +6601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2325,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +6629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +6643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2367,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -2381,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2395,7 +6685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -2409,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +6713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>73</v>
       </c>
@@ -2437,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>73</v>
       </c>
@@ -2451,7 +6741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +6755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -2479,7 +6769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -2493,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>98</v>
       </c>
@@ -2507,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>64</v>
       </c>
@@ -2521,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2535,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>39</v>
       </c>
@@ -2549,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>39</v>
       </c>
@@ -2563,7 +6853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>102</v>
       </c>
@@ -2577,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>58</v>
       </c>
@@ -2591,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -2605,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2619,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -2633,7 +6923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2647,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +6951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -2689,7 +6979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>107</v>
       </c>
@@ -2703,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>107</v>
       </c>
@@ -2717,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -2731,7 +7021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>73</v>
       </c>
@@ -2745,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>73</v>
       </c>
@@ -2759,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +7063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -2787,7 +7077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -2801,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>98</v>
       </c>
@@ -2815,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>98</v>
       </c>
@@ -2829,7 +7119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>64</v>
       </c>
@@ -2843,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>64</v>
       </c>
@@ -2857,7 +7147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>84</v>
       </c>
@@ -2871,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>39</v>
       </c>
@@ -2885,7 +7175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>58</v>
       </c>
@@ -2899,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -2913,7 +7203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -2927,7 +7217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -2941,7 +7231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -2955,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -2969,7 +7259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -2983,7 +7273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -3011,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>73</v>
       </c>
@@ -3025,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -3039,7 +7329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>64</v>
       </c>
@@ -3053,7 +7343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -3067,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>39</v>
       </c>
@@ -3081,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -3095,7 +7385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -3109,7 +7399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -3123,7 +7413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>104</v>
       </c>
@@ -3137,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>104</v>
       </c>
@@ -3151,7 +7441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -3165,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +7469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -3193,7 +7483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>107</v>
       </c>
@@ -3207,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>71</v>
       </c>
@@ -3221,7 +7511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -3235,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -3249,7 +7539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>64</v>
       </c>
@@ -3263,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>64</v>
       </c>
@@ -3277,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -3291,7 +7581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>125</v>
       </c>
@@ -3305,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>128</v>
       </c>
@@ -3319,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>130</v>
       </c>
@@ -3333,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -3347,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>102</v>
       </c>
@@ -3361,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>102</v>
       </c>
@@ -3375,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>134</v>
       </c>
@@ -3389,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -3403,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>58</v>
       </c>
@@ -3417,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>58</v>
       </c>
@@ -3431,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>104</v>
       </c>
@@ -3445,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -3459,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -3473,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -3487,7 +7777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -3501,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -3515,7 +7805,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>84</v>
       </c>
@@ -3529,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>102</v>
       </c>
@@ -3543,7 +7833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -3557,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -3571,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -3585,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -3599,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +7903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -3627,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>107</v>
       </c>
@@ -3641,7 +7931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>73</v>
       </c>
@@ -3655,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -3669,7 +7959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -3683,7 +7973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>64</v>
       </c>
@@ -3697,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>64</v>
       </c>
@@ -3711,7 +8001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>31</v>
       </c>
@@ -3725,7 +8015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>33</v>
       </c>
@@ -3739,7 +8029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>134</v>
       </c>
@@ -3753,7 +8043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>58</v>
       </c>
@@ -3767,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>58</v>
       </c>
@@ -3781,7 +8071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -3795,7 +8085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -3809,7 +8099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -3823,7 +8113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -3837,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +8141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -3865,7 +8155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>64</v>
       </c>
@@ -3879,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>64</v>
       </c>
@@ -3893,7 +8183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>125</v>
       </c>
@@ -3907,7 +8197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>125</v>
       </c>
@@ -3921,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -3935,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>130</v>
       </c>
@@ -3949,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>39</v>
       </c>
@@ -3963,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>58</v>
       </c>
@@ -3977,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>58</v>
       </c>
@@ -3991,7 +8281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>58</v>
       </c>
@@ -4005,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -4019,7 +8309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -4033,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>125</v>
       </c>
@@ -4047,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -4061,7 +8351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>130</v>
       </c>
@@ -4075,7 +8365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>102</v>
       </c>
@@ -4089,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>58</v>
       </c>
@@ -4103,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>73</v>
       </c>
@@ -4117,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>39</v>
       </c>
@@ -4131,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>58</v>
       </c>
@@ -4145,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>160</v>
       </c>
@@ -4159,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>58</v>
       </c>
@@ -4173,7 +8463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>64</v>
       </c>
@@ -4188,7 +8478,832 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E527CF-31C2-4B1E-8B62-DB6630959C01}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>384</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28">
+        <v>2006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC72EE30-03D0-4249-8575-41E7748C5568}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D2A3A-9104-4FF6-A8DF-78869470696D}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0E3EB-9BA4-4EDB-AFE1-EEB8F5597AF2}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047EA121-1CAC-41A0-B1D0-CFD7C869D1F6}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2">
+        <v>2013</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B6F7A-1CE6-4C7B-94A7-05F7E42D1BFF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5">
+        <v>2011</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\762-impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molin\300_Process\PHEV_Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1485385-A885-4150-AF43-1810657B3010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282FBA2-EAD1-49F7-A092-B2B03EFC38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26535" yWindow="2265" windowWidth="18000" windowHeight="9270" xr2:uid="{A20E9BE5-BFF9-4B73-88EE-1B4D7DFDCD2E}"/>
+    <workbookView xWindow="3780" yWindow="3670" windowWidth="7520" windowHeight="3370" xr2:uid="{CE13BDA5-F140-4DDF-A5DE-5622F27222D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="169">
   <si>
     <t>Make</t>
   </si>
@@ -50,127 +50,139 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Mitsubishi</t>
-  </si>
-  <si>
-    <t>Outlander</t>
-  </si>
-  <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>XC90</t>
-  </si>
-  <si>
-    <t>XC60</t>
-  </si>
-  <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>Multivan</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Prius</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>Skoda</t>
-  </si>
-  <si>
-    <t>Superb</t>
-  </si>
-  <si>
-    <t>Octavia</t>
-  </si>
-  <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Koleos</t>
-  </si>
-  <si>
-    <t>Kadjar</t>
-  </si>
-  <si>
-    <t>Peugeot</t>
-  </si>
-  <si>
-    <t>Triton</t>
-  </si>
-  <si>
-    <t>Pajero</t>
-  </si>
-  <si>
-    <t>Mirage</t>
-  </si>
-  <si>
-    <t>Express</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>ASX</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>HS</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
-    <t>Rover</t>
-  </si>
-  <si>
-    <t>Kia</t>
-  </si>
-  <si>
-    <t>Sorento</t>
-  </si>
-  <si>
-    <t>Niro</t>
-  </si>
-  <si>
-    <t>Isuzu</t>
-  </si>
-  <si>
-    <t>MU-X</t>
-  </si>
-  <si>
-    <t>D-Max</t>
-  </si>
-  <si>
-    <t>Hyundai</t>
-  </si>
-  <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>Tucson</t>
-  </si>
-  <si>
-    <t>Santa</t>
-  </si>
-  <si>
-    <t>Palisade</t>
-  </si>
-  <si>
-    <t>Kona</t>
-  </si>
-  <si>
-    <t>IONIQ</t>
+    <t>mitsubishi</t>
+  </si>
+  <si>
+    <t>outlander</t>
+  </si>
+  <si>
+    <t>volvo</t>
+  </si>
+  <si>
+    <t>xc90</t>
+  </si>
+  <si>
+    <t>xc60</t>
+  </si>
+  <si>
+    <t>volkswagen</t>
+  </si>
+  <si>
+    <t>multivan</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>prius</t>
+  </si>
+  <si>
+    <t>tesla</t>
+  </si>
+  <si>
+    <t>model-y</t>
+  </si>
+  <si>
+    <t>skoda</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>octavia</t>
+  </si>
+  <si>
+    <t>renault</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>koleos</t>
+  </si>
+  <si>
+    <t>kadjar</t>
+  </si>
+  <si>
+    <t>peugeot</t>
+  </si>
+  <si>
+    <t>listing</t>
+  </si>
+  <si>
+    <t>triton</t>
+  </si>
+  <si>
+    <t>pajero</t>
+  </si>
+  <si>
+    <t>mirage</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>eclipse-cross</t>
+  </si>
+  <si>
+    <t>asx</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>land-rover</t>
+  </si>
+  <si>
+    <t>range-rover-velar</t>
+  </si>
+  <si>
+    <t>range-rover-evoque</t>
+  </si>
+  <si>
+    <t>kia</t>
+  </si>
+  <si>
+    <t>sorento</t>
+  </si>
+  <si>
+    <t>niro</t>
+  </si>
+  <si>
+    <t>isuzu</t>
+  </si>
+  <si>
+    <t>mu-x</t>
+  </si>
+  <si>
+    <t>d-max</t>
+  </si>
+  <si>
+    <t>hyundai</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>tucson</t>
+  </si>
+  <si>
+    <t>santa-fe</t>
+  </si>
+  <si>
+    <t>palisade</t>
+  </si>
+  <si>
+    <t>kona</t>
+  </si>
+  <si>
+    <t>ioniq</t>
+  </si>
+  <si>
+    <t>i30-n</t>
   </si>
   <si>
     <t>i30</t>
@@ -179,262 +191,259 @@
     <t>i20</t>
   </si>
   <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Transit</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>Escape</t>
-  </si>
-  <si>
-    <t>Citroen</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>BYD</t>
-  </si>
-  <si>
-    <t>Extended</t>
-  </si>
-  <si>
-    <t>Atto</t>
-  </si>
-  <si>
-    <t>60KW</t>
-  </si>
-  <si>
-    <t>50kW</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>X5</t>
-  </si>
-  <si>
-    <t>Alfa</t>
-  </si>
-  <si>
-    <t>Romeo</t>
-  </si>
-  <si>
-    <t>T-Roc</t>
-  </si>
-  <si>
-    <t>Yaris</t>
-  </si>
-  <si>
-    <t>Highlander</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Staria</t>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>citroen</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>byd</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>alfa-romeo</t>
+  </si>
+  <si>
+    <t>stelvio</t>
+  </si>
+  <si>
+    <t>t-roc</t>
+  </si>
+  <si>
+    <t>yaris</t>
+  </si>
+  <si>
+    <t>land-cruiser</t>
+  </si>
+  <si>
+    <t>highlander</t>
+  </si>
+  <si>
+    <t>mercedes-benz</t>
+  </si>
+  <si>
+    <t>e-300</t>
+  </si>
+  <si>
+    <t>staria</t>
   </si>
   <si>
     <t>530e</t>
   </si>
   <si>
-    <t>Supra</t>
-  </si>
-  <si>
-    <t>RAV4</t>
-  </si>
-  <si>
-    <t>Raize</t>
-  </si>
-  <si>
-    <t>Hilux</t>
-  </si>
-  <si>
-    <t>Porsche</t>
-  </si>
-  <si>
-    <t>Cayenne</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>Leaf</t>
-  </si>
-  <si>
-    <t>Juke</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>HR-V</t>
-  </si>
-  <si>
-    <t>Genesis</t>
-  </si>
-  <si>
-    <t>G70</t>
-  </si>
-  <si>
-    <t>V60</t>
-  </si>
-  <si>
-    <t>Fortuner</t>
-  </si>
-  <si>
-    <t>Corolla</t>
-  </si>
-  <si>
-    <t>Camry</t>
-  </si>
-  <si>
-    <t>Panamera</t>
-  </si>
-  <si>
-    <t>NV350</t>
-  </si>
-  <si>
-    <t>Mazda</t>
-  </si>
-  <si>
-    <t>CX-30</t>
-  </si>
-  <si>
-    <t>Seltos</t>
-  </si>
-  <si>
-    <t>Accent</t>
-  </si>
-  <si>
-    <t>Ranger</t>
-  </si>
-  <si>
-    <t>Endura</t>
-  </si>
-  <si>
-    <t>X2</t>
+    <t>supra</t>
+  </si>
+  <si>
+    <t>rav4</t>
+  </si>
+  <si>
+    <t>raize</t>
+  </si>
+  <si>
+    <t>hilux</t>
+  </si>
+  <si>
+    <t>porsche</t>
+  </si>
+  <si>
+    <t>cayenne</t>
+  </si>
+  <si>
+    <t>nissan</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>juke</t>
+  </si>
+  <si>
+    <t>honda</t>
+  </si>
+  <si>
+    <t>hr-v</t>
+  </si>
+  <si>
+    <t>v60</t>
+  </si>
+  <si>
+    <t>fortuner</t>
+  </si>
+  <si>
+    <t>corolla</t>
+  </si>
+  <si>
+    <t>camry</t>
+  </si>
+  <si>
+    <t>panamera</t>
+  </si>
+  <si>
+    <t>nv350</t>
+  </si>
+  <si>
+    <t>mazda</t>
+  </si>
+  <si>
+    <t>cx-30</t>
+  </si>
+  <si>
+    <t>range-rover-sport</t>
+  </si>
+  <si>
+    <t>seltos</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>ranger</t>
+  </si>
+  <si>
+    <t>endura</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
   <si>
     <t>740e</t>
   </si>
   <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>Hiace</t>
-  </si>
-  <si>
-    <t>C-HR</t>
-  </si>
-  <si>
-    <t>Aqua</t>
-  </si>
-  <si>
-    <t>MINI</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Countryman</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>Holden</t>
-  </si>
-  <si>
-    <t>Captiva</t>
-  </si>
-  <si>
-    <t>Audi</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Tiguan</t>
-  </si>
-  <si>
-    <t>Vitz</t>
-  </si>
-  <si>
-    <t>Subaru</t>
-  </si>
-  <si>
-    <t>XV</t>
-  </si>
-  <si>
-    <t>Forester</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CX-3</t>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>hiace</t>
+  </si>
+  <si>
+    <t>c-hr</t>
+  </si>
+  <si>
+    <t>aqua</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>countryman</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>e-350</t>
+  </si>
+  <si>
+    <t>discovery-sport</t>
+  </si>
+  <si>
+    <t>holden</t>
+  </si>
+  <si>
+    <t>captiva</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>tiguan</t>
+  </si>
+  <si>
+    <t>vitz</t>
+  </si>
+  <si>
+    <t>subaru</t>
+  </si>
+  <si>
+    <t>xv</t>
+  </si>
+  <si>
+    <t>forester</t>
+  </si>
+  <si>
+    <t>c-350-e</t>
+  </si>
+  <si>
+    <t>cx-3</t>
   </si>
   <si>
     <t>330e</t>
   </si>
   <si>
-    <t>Polo</t>
-  </si>
-  <si>
-    <t>Passat</t>
-  </si>
-  <si>
-    <t>Sportage</t>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>passat</t>
+  </si>
+  <si>
+    <t>land-cruiser-prado</t>
+  </si>
+  <si>
+    <t>sportage</t>
   </si>
   <si>
     <t>225xe</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>Jetta</t>
-  </si>
-  <si>
-    <t>Macan</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Lexus</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>NX</t>
-  </si>
-  <si>
-    <t>Jaguar</t>
-  </si>
-  <si>
-    <t>XF</t>
-  </si>
-  <si>
-    <t>GRACE</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>M235i</t>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>jetta</t>
+  </si>
+  <si>
+    <t>macan</t>
+  </si>
+  <si>
+    <t>s-400</t>
+  </si>
+  <si>
+    <t>c-220</t>
+  </si>
+  <si>
+    <t>lexus</t>
+  </si>
+  <si>
+    <t>rc-300</t>
+  </si>
+  <si>
+    <t>nx-300h</t>
+  </si>
+  <si>
+    <t>jaguar</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>m235i</t>
   </si>
   <si>
     <t>i8</t>
@@ -443,111 +452,109 @@
     <t>435i</t>
   </si>
   <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>Harrier</t>
-  </si>
-  <si>
-    <t>CX-9</t>
-  </si>
-  <si>
-    <t>Vezel</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>SQ5</t>
-  </si>
-  <si>
-    <t>RVR</t>
-  </si>
-  <si>
-    <t>CLA</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>CX-5</t>
-  </si>
-  <si>
-    <t>Commodore</t>
-  </si>
-  <si>
-    <t>Lancer</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>GS</t>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>harrier</t>
+  </si>
+  <si>
+    <t>cx-9</t>
+  </si>
+  <si>
+    <t>vezel</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>sq5</t>
+  </si>
+  <si>
+    <t>rvr</t>
+  </si>
+  <si>
+    <t>cla-45</t>
+  </si>
+  <si>
+    <t>a-180</t>
+  </si>
+  <si>
+    <t>cx-5</t>
+  </si>
+  <si>
+    <t>commodore</t>
+  </si>
+  <si>
+    <t>lancer</t>
+  </si>
+  <si>
+    <t>r-350</t>
+  </si>
+  <si>
+    <t>ml-350</t>
+  </si>
+  <si>
+    <t>c-180</t>
+  </si>
+  <si>
+    <t>rx-450h</t>
+  </si>
+  <si>
+    <t>ls-600</t>
+  </si>
+  <si>
+    <t>gs-250</t>
+  </si>
+  <si>
+    <t>range-rover</t>
   </si>
   <si>
     <t>116i</t>
   </si>
   <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>Fit</t>
+    <t>is-250</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>523i</t>
   </si>
   <si>
-    <t>X-Trail</t>
-  </si>
-  <si>
-    <t>Getz</t>
+    <t>x-trail</t>
+  </si>
+  <si>
+    <t>getz</t>
   </si>
   <si>
     <t>320i</t>
   </si>
   <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Grand</t>
+    <t>suzuki</t>
+  </si>
+  <si>
+    <t>grand-vitara</t>
   </si>
   <si>
     <t>525i</t>
   </si>
   <si>
-    <t>SLK</t>
+    <t>slk-350</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -569,17 +576,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,7 +598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -890,14 +893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D5F385-A4DD-469E-A49A-374F7A5867A4}">
-  <dimension ref="A1:D247"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610AEF75-CCED-45D4-92E4-B5C558A07A8F}">
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -925,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -939,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -953,7 +956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -967,7 +970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -981,12 +984,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -995,12 +998,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1009,12 +1012,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1023,12 +1026,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1037,12 +1040,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1051,12 +1054,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1065,9 +1068,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>3008</v>
@@ -1079,68 +1082,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2022</v>
       </c>
       <c r="D14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -1149,37 +1152,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2022</v>
       </c>
       <c r="D20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1188,10 +1191,10 @@
         <v>2022</v>
       </c>
       <c r="D21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1202,10 +1205,10 @@
         <v>2022</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1216,10 +1219,10 @@
         <v>2022</v>
       </c>
       <c r="D23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1230,10 +1233,10 @@
         <v>2022</v>
       </c>
       <c r="D24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1244,10 +1247,10 @@
         <v>2022</v>
       </c>
       <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1258,10 +1261,10 @@
         <v>2022</v>
       </c>
       <c r="D26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1272,10 +1275,10 @@
         <v>2022</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1286,96 +1289,96 @@
         <v>2022</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>2022</v>
       </c>
       <c r="D29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>2022</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>2022</v>
       </c>
       <c r="D31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>2022</v>
       </c>
       <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>2022</v>
       </c>
       <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2022</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1384,12 +1387,12 @@
         <v>2022</v>
       </c>
       <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -1398,12 +1401,12 @@
         <v>2022</v>
       </c>
       <c r="D36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -1415,54 +1418,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>2022</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>2022</v>
       </c>
       <c r="D39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
         <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
       </c>
       <c r="C40">
         <v>2022</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -1471,96 +1474,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>2022</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C43">
         <v>2022</v>
       </c>
       <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>2022</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="C45">
-        <v>2021</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
       <c r="C46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>2021</v>
       </c>
       <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -1569,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1580,29 +1583,29 @@
         <v>2021</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>2021</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51">
-        <v>508</v>
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -1611,180 +1614,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>2021</v>
       </c>
       <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>2021</v>
       </c>
       <c r="D53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>508</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>65</v>
-      </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>2021</v>
       </c>
       <c r="D57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>2021</v>
       </c>
       <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C60">
         <v>2021</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C61">
         <v>2021</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>2021</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C63">
         <v>2021</v>
       </c>
       <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C64">
         <v>2021</v>
@@ -1793,68 +1796,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C65">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66">
+        <v>2021</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>2021</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="C66">
-        <v>2020</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67">
-        <v>2020</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
       <c r="C68">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>2020</v>
@@ -1863,26 +1866,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>2020</v>
       </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71">
-        <v>2008</v>
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
       </c>
       <c r="C71">
         <v>2020</v>
@@ -1891,26 +1894,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C72">
         <v>2020</v>
       </c>
       <c r="D72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <v>2020</v>
@@ -1919,40 +1922,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>2020</v>
       </c>
       <c r="D74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>2008</v>
       </c>
       <c r="C75">
         <v>2020</v>
       </c>
       <c r="D75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
       </c>
       <c r="C76">
         <v>2020</v>
@@ -1961,26 +1964,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C77">
         <v>2020</v>
       </c>
       <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C78">
         <v>2020</v>
@@ -1989,40 +1992,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C79">
         <v>2020</v>
       </c>
       <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C80">
         <v>2020</v>
       </c>
       <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
       </c>
       <c r="C81">
         <v>2020</v>
@@ -2031,12 +2034,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C82">
         <v>2020</v>
@@ -2045,68 +2048,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83">
+        <v>2020</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84">
+        <v>2020</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85">
+        <v>2020</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86">
+        <v>2020</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83">
-        <v>2019</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84">
-        <v>2019</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85">
-        <v>2019</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86">
-        <v>2019</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C87">
         <v>2019</v>
@@ -2115,26 +2118,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C88">
         <v>2019</v>
       </c>
       <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C89">
         <v>2019</v>
@@ -2143,26 +2146,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C90">
         <v>2019</v>
       </c>
       <c r="D90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C91">
         <v>2019</v>
@@ -2171,12 +2174,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C92">
         <v>2019</v>
@@ -2185,26 +2188,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C93">
         <v>2019</v>
       </c>
       <c r="D93">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C94">
         <v>2019</v>
@@ -2213,12 +2216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C95">
         <v>2019</v>
@@ -2227,12 +2230,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -2241,26 +2244,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>89</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
       </c>
       <c r="C97">
         <v>2019</v>
       </c>
       <c r="D97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C98">
         <v>2019</v>
@@ -2269,12 +2272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C99">
         <v>2019</v>
@@ -2283,12 +2286,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C100">
         <v>2019</v>
@@ -2297,40 +2300,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>38</v>
-      </c>
-      <c r="B101" t="s">
-        <v>40</v>
+        <v>88</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
       </c>
       <c r="C101">
         <v>2019</v>
       </c>
       <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C102">
         <v>2019</v>
       </c>
       <c r="D102">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103">
         <v>2019</v>
@@ -2339,12 +2342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C104">
         <v>2019</v>
@@ -2353,12 +2356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C105">
         <v>2019</v>
@@ -2367,124 +2370,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C106">
         <v>2019</v>
       </c>
       <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C107">
         <v>2019</v>
       </c>
       <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108">
+        <v>2019</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109">
+        <v>2019</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110">
+        <v>2019</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C111">
+        <v>2019</v>
+      </c>
+      <c r="D111">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>9</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B112" t="s">
         <v>97</v>
-      </c>
-      <c r="C108">
-        <v>2018</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109">
-        <v>2018</v>
-      </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110">
-        <v>2018</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111">
-        <v>2018</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
-        <v>64</v>
       </c>
       <c r="C112">
         <v>2018</v>
       </c>
       <c r="D112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C113">
         <v>2018</v>
       </c>
       <c r="D113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C114">
         <v>2018</v>
@@ -2493,54 +2496,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C115">
         <v>2018</v>
       </c>
       <c r="D115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C116">
         <v>2018</v>
       </c>
       <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C117">
         <v>2018</v>
       </c>
       <c r="D117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C118">
         <v>2018</v>
@@ -2549,12 +2552,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C119">
         <v>2018</v>
@@ -2563,40 +2566,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C120">
         <v>2018</v>
       </c>
       <c r="D120">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C121">
         <v>2018</v>
       </c>
       <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C122">
         <v>2018</v>
@@ -2605,40 +2608,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C123">
         <v>2018</v>
       </c>
       <c r="D123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>2018</v>
       </c>
       <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C125">
         <v>2018</v>
@@ -2647,12 +2650,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C126">
         <v>2018</v>
@@ -2661,26 +2664,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C127">
         <v>2018</v>
       </c>
       <c r="D127">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C128">
         <v>2018</v>
@@ -2689,12 +2692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B129" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C129">
         <v>2018</v>
@@ -2703,12 +2706,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C130">
         <v>2018</v>
@@ -2717,82 +2720,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C131">
         <v>2018</v>
       </c>
       <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132">
+        <v>2018</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" t="s">
+        <v>107</v>
+      </c>
+      <c r="C133">
+        <v>2018</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134">
+        <v>2018</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" t="s">
+        <v>109</v>
+      </c>
+      <c r="C135">
+        <v>2018</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>9</v>
       </c>
-      <c r="B132" t="s">
-        <v>109</v>
-      </c>
-      <c r="C132">
-        <v>2017</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133">
-        <v>2017</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>110</v>
-      </c>
-      <c r="C134">
-        <v>2017</v>
-      </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135">
-        <v>2017</v>
-      </c>
-      <c r="D135">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136" t="s">
-        <v>30</v>
       </c>
       <c r="C136">
         <v>2017</v>
@@ -2801,82 +2804,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C137">
         <v>2017</v>
       </c>
       <c r="D137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C138">
         <v>2017</v>
       </c>
       <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C139">
         <v>2017</v>
       </c>
       <c r="D139">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C140">
         <v>2017</v>
       </c>
       <c r="D140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C141">
         <v>2017</v>
       </c>
       <c r="D141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C142">
         <v>2017</v>
@@ -2885,82 +2888,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C143">
         <v>2017</v>
       </c>
       <c r="D143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C144">
         <v>2017</v>
       </c>
       <c r="D144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="C145">
         <v>2017</v>
       </c>
       <c r="D145">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C146">
         <v>2017</v>
       </c>
       <c r="D146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B147" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C147">
         <v>2017</v>
       </c>
       <c r="D147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B148" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C148">
         <v>2017</v>
@@ -2969,180 +2972,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C149">
         <v>2017</v>
       </c>
       <c r="D149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="C150">
         <v>2017</v>
       </c>
       <c r="D150">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C151">
         <v>2017</v>
       </c>
       <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B152" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C152">
         <v>2017</v>
       </c>
       <c r="D152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B153" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C153">
         <v>2017</v>
       </c>
       <c r="D153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B154" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C154">
         <v>2017</v>
       </c>
       <c r="D154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B155" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C155">
         <v>2017</v>
       </c>
       <c r="D155">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B156" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C156">
         <v>2017</v>
       </c>
       <c r="D156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B157" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C157">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C158">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D158">
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159">
+        <v>2017</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>117</v>
+      </c>
+      <c r="C160">
+        <v>2017</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>9</v>
       </c>
-      <c r="B159" t="s">
-        <v>97</v>
-      </c>
-      <c r="C159">
-        <v>2016</v>
-      </c>
-      <c r="D159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" t="s">
-        <v>70</v>
-      </c>
-      <c r="C160">
-        <v>2016</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>11</v>
-      </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="C161">
         <v>2016</v>
@@ -3151,26 +3154,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="C162">
         <v>2016</v>
       </c>
       <c r="D162">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C163">
         <v>2016</v>
@@ -3179,12 +3182,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C164">
         <v>2016</v>
@@ -3193,40 +3196,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C165">
         <v>2016</v>
       </c>
       <c r="D165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="C166">
         <v>2016</v>
       </c>
       <c r="D166">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C167">
         <v>2016</v>
@@ -3235,138 +3238,138 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B168" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C168">
         <v>2016</v>
       </c>
       <c r="D168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B169" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="C169">
         <v>2016</v>
       </c>
       <c r="D169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B170" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C170">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B171" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C171">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D171">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="C172">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="B173" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C173">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C174">
         <v>2015</v>
       </c>
       <c r="D174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C175">
         <v>2015</v>
       </c>
       <c r="D175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C176">
         <v>2015</v>
       </c>
       <c r="D176">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C177">
         <v>2015</v>
@@ -3375,12 +3378,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B178" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C178">
         <v>2015</v>
@@ -3389,12 +3392,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C179">
         <v>2015</v>
@@ -3403,26 +3406,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="C180">
         <v>2015</v>
       </c>
       <c r="D180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B181" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C181">
         <v>2015</v>
@@ -3431,12 +3434,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B182" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C182">
         <v>2015</v>
@@ -3445,12 +3448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B183" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="C183">
         <v>2015</v>
@@ -3459,12 +3462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="B184" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C184">
         <v>2015</v>
@@ -3473,12 +3476,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C185">
         <v>2015</v>
@@ -3487,12 +3490,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="B186" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C186">
         <v>2015</v>
@@ -3501,12 +3504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B187" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C187">
         <v>2015</v>
@@ -3515,12 +3518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B188" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C188">
         <v>2015</v>
@@ -3529,12 +3532,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="C189">
         <v>2015</v>
@@ -3543,135 +3546,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B190" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C190">
         <v>2015</v>
       </c>
       <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>136</v>
+      </c>
+      <c r="C191">
+        <v>2015</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s">
+        <v>137</v>
+      </c>
+      <c r="C192">
+        <v>2015</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>108</v>
+      </c>
+      <c r="B193" t="s">
+        <v>138</v>
+      </c>
+      <c r="C193">
+        <v>2015</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>108</v>
+      </c>
+      <c r="B194" t="s">
+        <v>139</v>
+      </c>
+      <c r="C194">
+        <v>2015</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>108</v>
+      </c>
+      <c r="B195" t="s">
+        <v>123</v>
+      </c>
+      <c r="C195">
+        <v>2015</v>
+      </c>
+      <c r="D195">
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>9</v>
       </c>
-      <c r="B191" t="s">
-        <v>118</v>
-      </c>
-      <c r="C191">
-        <v>2014</v>
-      </c>
-      <c r="D191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>11</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192">
-        <v>2014</v>
-      </c>
-      <c r="D192">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" t="s">
-        <v>64</v>
-      </c>
-      <c r="C193">
-        <v>2014</v>
-      </c>
-      <c r="D193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" t="s">
-        <v>137</v>
-      </c>
-      <c r="C194">
-        <v>2014</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>4</v>
-      </c>
-      <c r="B195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195">
-        <v>2014</v>
-      </c>
-      <c r="D195">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>89</v>
-      </c>
       <c r="B196" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C196">
         <v>2014</v>
       </c>
       <c r="D196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="C197">
         <v>2014</v>
       </c>
       <c r="D197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C198">
         <v>2014</v>
       </c>
       <c r="D198">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
         <v>140</v>
@@ -3683,12 +3686,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="C200">
         <v>2014</v>
@@ -3697,124 +3700,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="C201">
         <v>2014</v>
       </c>
       <c r="D201">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>88</v>
+      </c>
+      <c r="B202" t="s">
+        <v>141</v>
+      </c>
+      <c r="C202">
+        <v>2014</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>128</v>
+      </c>
+      <c r="B203" t="s">
+        <v>130</v>
+      </c>
+      <c r="C203">
+        <v>2014</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>80</v>
+      </c>
+      <c r="B204" t="s">
+        <v>142</v>
+      </c>
+      <c r="C204">
+        <v>2014</v>
+      </c>
+      <c r="D204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>141</v>
+      </c>
+      <c r="B205" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205">
+        <v>2014</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>59</v>
+      </c>
+      <c r="B206" t="s">
+        <v>143</v>
+      </c>
+      <c r="C206">
+        <v>2014</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>108</v>
+      </c>
+      <c r="B207" t="s">
+        <v>144</v>
+      </c>
+      <c r="C207">
+        <v>2014</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>108</v>
+      </c>
+      <c r="B208" t="s">
+        <v>139</v>
+      </c>
+      <c r="C208">
+        <v>2014</v>
+      </c>
+      <c r="D208">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
         <v>9</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B209" t="s">
         <v>97</v>
-      </c>
-      <c r="C202">
-        <v>2013</v>
-      </c>
-      <c r="D202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>11</v>
-      </c>
-      <c r="B203" t="s">
-        <v>63</v>
-      </c>
-      <c r="C203">
-        <v>2013</v>
-      </c>
-      <c r="D203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204">
-        <v>2013</v>
-      </c>
-      <c r="D204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>111</v>
-      </c>
-      <c r="B205" t="s">
-        <v>112</v>
-      </c>
-      <c r="C205">
-        <v>2013</v>
-      </c>
-      <c r="D205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206" t="s">
-        <v>142</v>
-      </c>
-      <c r="C206">
-        <v>2013</v>
-      </c>
-      <c r="D206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>4</v>
-      </c>
-      <c r="B207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C207">
-        <v>2013</v>
-      </c>
-      <c r="D207">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>65</v>
-      </c>
-      <c r="B208" t="s">
-        <v>143</v>
-      </c>
-      <c r="C208">
-        <v>2013</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>65</v>
-      </c>
-      <c r="B209" t="s">
-        <v>144</v>
       </c>
       <c r="C209">
         <v>2013</v>
@@ -3823,26 +3826,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="C210">
         <v>2013</v>
       </c>
       <c r="D210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C211">
         <v>2013</v>
@@ -3851,12 +3854,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B212" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="C212">
         <v>2013</v>
@@ -3865,12 +3868,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="C213">
         <v>2013</v>
@@ -3879,12 +3882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C214">
         <v>2013</v>
@@ -3893,138 +3896,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D215">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B216" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C216">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C217">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D217">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B218" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="C218">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D218">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B219" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C219">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" t="s">
+        <v>34</v>
+      </c>
+      <c r="C220">
+        <v>2013</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B221" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221">
+        <v>2013</v>
+      </c>
+      <c r="D221">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>4</v>
-      </c>
-      <c r="B220" t="s">
-        <v>147</v>
-      </c>
-      <c r="C220">
-        <v>2012</v>
-      </c>
-      <c r="D220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>65</v>
-      </c>
-      <c r="B221" t="s">
-        <v>148</v>
-      </c>
-      <c r="C221">
-        <v>2012</v>
-      </c>
-      <c r="D221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B222" t="s">
         <v>149</v>
       </c>
       <c r="C222">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D222">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B223" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C223">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D223">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="C224">
         <v>2012</v>
@@ -4033,54 +4036,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="C225">
         <v>2012</v>
       </c>
       <c r="D225">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C226">
         <v>2012</v>
       </c>
       <c r="D226">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C227">
         <v>2012</v>
       </c>
       <c r="D227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C228">
         <v>2012</v>
@@ -4089,26 +4092,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C229">
         <v>2012</v>
       </c>
       <c r="D229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C230">
         <v>2012</v>
@@ -4117,12 +4120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B231" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C231">
         <v>2012</v>
@@ -4131,12 +4134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B232" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C232">
         <v>2012</v>
@@ -4145,218 +4148,371 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>67</v>
+      </c>
+      <c r="B233" t="s">
+        <v>153</v>
+      </c>
+      <c r="C233">
+        <v>2012</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>128</v>
+      </c>
+      <c r="B234" t="s">
+        <v>154</v>
+      </c>
+      <c r="C234">
+        <v>2012</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>128</v>
+      </c>
+      <c r="B235" t="s">
+        <v>155</v>
+      </c>
+      <c r="C235">
+        <v>2012</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>128</v>
+      </c>
+      <c r="B236" t="s">
+        <v>156</v>
+      </c>
+      <c r="C236">
+        <v>2012</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>32</v>
+      </c>
+      <c r="B237" t="s">
+        <v>157</v>
+      </c>
+      <c r="C237">
+        <v>2012</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>131</v>
+      </c>
+      <c r="B238" t="s">
+        <v>132</v>
+      </c>
+      <c r="C238">
+        <v>2012</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>41</v>
+      </c>
+      <c r="B239" t="s">
+        <v>44</v>
+      </c>
+      <c r="C239">
+        <v>2012</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>59</v>
+      </c>
+      <c r="B240" t="s">
+        <v>60</v>
+      </c>
+      <c r="C240">
+        <v>2012</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>59</v>
+      </c>
+      <c r="B241" t="s">
+        <v>143</v>
+      </c>
+      <c r="C241">
+        <v>2012</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>59</v>
+      </c>
+      <c r="B242" t="s">
+        <v>158</v>
+      </c>
+      <c r="C242">
+        <v>2012</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>9</v>
       </c>
-      <c r="B233" t="s">
-        <v>109</v>
-      </c>
-      <c r="C233">
+      <c r="B243" t="s">
+        <v>110</v>
+      </c>
+      <c r="C243">
         <v>2011</v>
       </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>9</v>
       </c>
-      <c r="B234" t="s">
-        <v>117</v>
-      </c>
-      <c r="C234">
+      <c r="B244" t="s">
+        <v>118</v>
+      </c>
+      <c r="C244">
         <v>2011</v>
       </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>125</v>
-      </c>
-      <c r="B235" t="s">
-        <v>150</v>
-      </c>
-      <c r="C235">
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" t="s">
+        <v>154</v>
+      </c>
+      <c r="C245">
         <v>2011</v>
       </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>125</v>
-      </c>
-      <c r="B236" t="s">
-        <v>154</v>
-      </c>
-      <c r="C236">
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>128</v>
+      </c>
+      <c r="B246" t="s">
+        <v>159</v>
+      </c>
+      <c r="C246">
         <v>2011</v>
       </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>128</v>
-      </c>
-      <c r="B237" t="s">
-        <v>129</v>
-      </c>
-      <c r="C237">
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>131</v>
+      </c>
+      <c r="B247" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247">
         <v>2011</v>
       </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>79</v>
-      </c>
-      <c r="B238" t="s">
-        <v>155</v>
-      </c>
-      <c r="C238">
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>80</v>
+      </c>
+      <c r="B248" t="s">
+        <v>160</v>
+      </c>
+      <c r="C248">
         <v>2011</v>
       </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>58</v>
-      </c>
-      <c r="B239" t="s">
-        <v>156</v>
-      </c>
-      <c r="C239">
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>59</v>
+      </c>
+      <c r="B249" t="s">
+        <v>161</v>
+      </c>
+      <c r="C249">
         <v>2011</v>
       </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>75</v>
-      </c>
-      <c r="B240" t="s">
-        <v>157</v>
-      </c>
-      <c r="C240">
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>77</v>
+      </c>
+      <c r="B250" t="s">
+        <v>162</v>
+      </c>
+      <c r="C250">
         <v>2009</v>
       </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>38</v>
-      </c>
-      <c r="B241" t="s">
-        <v>158</v>
-      </c>
-      <c r="C241">
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>41</v>
+      </c>
+      <c r="B251" t="s">
+        <v>163</v>
+      </c>
+      <c r="C251">
         <v>2009</v>
       </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>58</v>
-      </c>
-      <c r="B242" t="s">
-        <v>159</v>
-      </c>
-      <c r="C242">
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>59</v>
+      </c>
+      <c r="B252" t="s">
+        <v>164</v>
+      </c>
+      <c r="C252">
         <v>2009</v>
       </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>160</v>
-      </c>
-      <c r="B243" t="s">
-        <v>161</v>
-      </c>
-      <c r="C243">
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>165</v>
+      </c>
+      <c r="B253" t="s">
+        <v>166</v>
+      </c>
+      <c r="C253">
         <v>2007</v>
       </c>
-      <c r="D243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>58</v>
-      </c>
-      <c r="B244" t="s">
-        <v>162</v>
-      </c>
-      <c r="C244">
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>166</v>
+      </c>
+      <c r="B254" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254">
+        <v>2007</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>59</v>
+      </c>
+      <c r="B255" t="s">
+        <v>167</v>
+      </c>
+      <c r="C255">
         <v>2006</v>
       </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>11</v>
       </c>
-      <c r="B245" t="s">
-        <v>30</v>
-      </c>
-      <c r="C245">
+      <c r="B256" t="s">
+        <v>65</v>
+      </c>
+      <c r="C256">
         <v>2005</v>
       </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>65</v>
-      </c>
-      <c r="B246" t="s">
-        <v>163</v>
-      </c>
-      <c r="C246">
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>67</v>
+      </c>
+      <c r="B257" t="s">
+        <v>168</v>
+      </c>
+      <c r="C257">
         <v>2005</v>
       </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>11</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B258" t="s">
         <v>12</v>
       </c>
-      <c r="C247">
+      <c r="C258">
         <v>2004</v>
       </c>
-      <c r="D247">
+      <c r="D258">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molin\300_Process\PHEV_Process\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282FBA2-EAD1-49F7-A092-B2B03EFC38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA1F77-6D7B-4214-954A-A1EF45B05C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3670" windowWidth="7520" windowHeight="3370" xr2:uid="{CE13BDA5-F140-4DDF-A5DE-5622F27222D6}"/>
+    <workbookView xWindow="11270" yWindow="1900" windowWidth="7520" windowHeight="3370" xr2:uid="{FD5F6010-DD89-4094-ACBD-EB6F4160259C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="165">
   <si>
     <t>Make</t>
   </si>
@@ -95,396 +95,387 @@
     <t>renault</t>
   </si>
   <si>
+    <t>megane</t>
+  </si>
+  <si>
     <t>master</t>
   </si>
   <si>
+    <t>captur</t>
+  </si>
+  <si>
+    <t>peugeot</t>
+  </si>
+  <si>
+    <t>listing</t>
+  </si>
+  <si>
+    <t>triton</t>
+  </si>
+  <si>
+    <t>pajero</t>
+  </si>
+  <si>
+    <t>mirage</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>eclipse-cross</t>
+  </si>
+  <si>
+    <t>asx</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>land-rover</t>
+  </si>
+  <si>
+    <t>range-rover-velar</t>
+  </si>
+  <si>
+    <t>range-rover</t>
+  </si>
+  <si>
+    <t>kia</t>
+  </si>
+  <si>
+    <t>sorento</t>
+  </si>
+  <si>
+    <t>niro</t>
+  </si>
+  <si>
+    <t>isuzu</t>
+  </si>
+  <si>
+    <t>mu-x</t>
+  </si>
+  <si>
+    <t>d-max</t>
+  </si>
+  <si>
+    <t>hyundai</t>
+  </si>
+  <si>
+    <t>santa-fe</t>
+  </si>
+  <si>
+    <t>kona</t>
+  </si>
+  <si>
+    <t>ioniq-5</t>
+  </si>
+  <si>
+    <t>ioniq</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>citroen</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>byd</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>alfa-romeo</t>
+  </si>
+  <si>
+    <t>stelvio</t>
+  </si>
+  <si>
+    <t>t-roc</t>
+  </si>
+  <si>
+    <t>yaris</t>
+  </si>
+  <si>
+    <t>land-cruiser</t>
+  </si>
+  <si>
+    <t>highlander</t>
+  </si>
+  <si>
+    <t>mercedes-benz</t>
+  </si>
+  <si>
+    <t>e-300</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>staria</t>
+  </si>
+  <si>
+    <t>530e</t>
+  </si>
+  <si>
+    <t>supra</t>
+  </si>
+  <si>
+    <t>rav4</t>
+  </si>
+  <si>
+    <t>raize</t>
+  </si>
+  <si>
+    <t>hilux</t>
+  </si>
+  <si>
+    <t>porsche</t>
+  </si>
+  <si>
+    <t>cayenne</t>
+  </si>
+  <si>
+    <t>nissan</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>juke</t>
+  </si>
+  <si>
+    <t>honda</t>
+  </si>
+  <si>
+    <t>hr-v</t>
+  </si>
+  <si>
+    <t>fortuner</t>
+  </si>
+  <si>
+    <t>corolla</t>
+  </si>
+  <si>
     <t>koleos</t>
   </si>
   <si>
-    <t>kadjar</t>
-  </si>
-  <si>
-    <t>peugeot</t>
-  </si>
-  <si>
-    <t>listing</t>
-  </si>
-  <si>
-    <t>triton</t>
-  </si>
-  <si>
-    <t>pajero</t>
-  </si>
-  <si>
-    <t>mirage</t>
-  </si>
-  <si>
-    <t>express</t>
-  </si>
-  <si>
-    <t>eclipse-cross</t>
-  </si>
-  <si>
-    <t>asx</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>hs</t>
-  </si>
-  <si>
-    <t>land-rover</t>
-  </si>
-  <si>
-    <t>range-rover-velar</t>
+    <t>panamera</t>
+  </si>
+  <si>
+    <t>nv350</t>
+  </si>
+  <si>
+    <t>mazda</t>
+  </si>
+  <si>
+    <t>cx-30</t>
+  </si>
+  <si>
+    <t>range-rover-sport</t>
+  </si>
+  <si>
+    <t>seltos</t>
+  </si>
+  <si>
+    <t>tucson</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>ranger</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>740e</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>hiace</t>
+  </si>
+  <si>
+    <t>c-hr</t>
+  </si>
+  <si>
+    <t>aqua</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>countryman</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>e-350</t>
+  </si>
+  <si>
+    <t>discovery-sport</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>tiguan</t>
+  </si>
+  <si>
+    <t>vitz</t>
+  </si>
+  <si>
+    <t>subaru</t>
+  </si>
+  <si>
+    <t>xv</t>
+  </si>
+  <si>
+    <t>forester</t>
+  </si>
+  <si>
+    <t>c-350-e</t>
+  </si>
+  <si>
+    <t>cx-3</t>
+  </si>
+  <si>
+    <t>330e</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>passat</t>
+  </si>
+  <si>
+    <t>land-cruiser-prado</t>
+  </si>
+  <si>
+    <t>sportage</t>
+  </si>
+  <si>
+    <t>225xe</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>jetta</t>
+  </si>
+  <si>
+    <t>camry</t>
+  </si>
+  <si>
+    <t>macan</t>
+  </si>
+  <si>
+    <t>s-400</t>
+  </si>
+  <si>
+    <t>c-220</t>
+  </si>
+  <si>
+    <t>lexus</t>
+  </si>
+  <si>
+    <t>rc-300</t>
+  </si>
+  <si>
+    <t>nx-300h</t>
+  </si>
+  <si>
+    <t>jeep</t>
+  </si>
+  <si>
+    <t>cherokee</t>
+  </si>
+  <si>
+    <t>jaguar</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>holden</t>
+  </si>
+  <si>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>m235i</t>
+  </si>
+  <si>
+    <t>435i</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>harrier</t>
+  </si>
+  <si>
+    <t>cx-9</t>
+  </si>
+  <si>
+    <t>vezel</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>sq5</t>
+  </si>
+  <si>
+    <t>rvr</t>
+  </si>
+  <si>
+    <t>cla-45</t>
+  </si>
+  <si>
+    <t>a-180</t>
+  </si>
+  <si>
+    <t>cx-5</t>
   </si>
   <si>
     <t>range-rover-evoque</t>
   </si>
   <si>
-    <t>kia</t>
-  </si>
-  <si>
-    <t>sorento</t>
-  </si>
-  <si>
-    <t>niro</t>
-  </si>
-  <si>
-    <t>isuzu</t>
-  </si>
-  <si>
-    <t>mu-x</t>
-  </si>
-  <si>
-    <t>d-max</t>
-  </si>
-  <si>
-    <t>hyundai</t>
-  </si>
-  <si>
-    <t>venue</t>
-  </si>
-  <si>
-    <t>tucson</t>
-  </si>
-  <si>
-    <t>santa-fe</t>
-  </si>
-  <si>
-    <t>palisade</t>
-  </si>
-  <si>
-    <t>kona</t>
-  </si>
-  <si>
-    <t>ioniq</t>
-  </si>
-  <si>
-    <t>i30-n</t>
-  </si>
-  <si>
-    <t>i30</t>
-  </si>
-  <si>
-    <t>i20</t>
-  </si>
-  <si>
-    <t>ford</t>
-  </si>
-  <si>
-    <t>transit</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>citroen</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>byd</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>bmw</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>alfa-romeo</t>
-  </si>
-  <si>
-    <t>stelvio</t>
-  </si>
-  <si>
-    <t>t-roc</t>
-  </si>
-  <si>
-    <t>yaris</t>
-  </si>
-  <si>
-    <t>land-cruiser</t>
-  </si>
-  <si>
-    <t>highlander</t>
-  </si>
-  <si>
-    <t>mercedes-benz</t>
-  </si>
-  <si>
-    <t>e-300</t>
-  </si>
-  <si>
-    <t>staria</t>
-  </si>
-  <si>
-    <t>530e</t>
-  </si>
-  <si>
-    <t>supra</t>
-  </si>
-  <si>
-    <t>rav4</t>
-  </si>
-  <si>
-    <t>raize</t>
-  </si>
-  <si>
-    <t>hilux</t>
-  </si>
-  <si>
-    <t>porsche</t>
-  </si>
-  <si>
-    <t>cayenne</t>
-  </si>
-  <si>
-    <t>nissan</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>juke</t>
-  </si>
-  <si>
-    <t>honda</t>
-  </si>
-  <si>
-    <t>hr-v</t>
-  </si>
-  <si>
-    <t>v60</t>
-  </si>
-  <si>
-    <t>fortuner</t>
-  </si>
-  <si>
-    <t>corolla</t>
-  </si>
-  <si>
-    <t>camry</t>
-  </si>
-  <si>
-    <t>panamera</t>
-  </si>
-  <si>
-    <t>nv350</t>
-  </si>
-  <si>
-    <t>mazda</t>
-  </si>
-  <si>
-    <t>cx-30</t>
-  </si>
-  <si>
-    <t>range-rover-sport</t>
-  </si>
-  <si>
-    <t>seltos</t>
-  </si>
-  <si>
-    <t>accent</t>
-  </si>
-  <si>
-    <t>ranger</t>
-  </si>
-  <si>
-    <t>endura</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>740e</t>
-  </si>
-  <si>
-    <t>golf</t>
-  </si>
-  <si>
-    <t>hiace</t>
-  </si>
-  <si>
-    <t>c-hr</t>
-  </si>
-  <si>
-    <t>aqua</t>
-  </si>
-  <si>
-    <t>mini</t>
-  </si>
-  <si>
-    <t>countryman</t>
-  </si>
-  <si>
-    <t>cooper</t>
-  </si>
-  <si>
-    <t>e-350</t>
-  </si>
-  <si>
-    <t>discovery-sport</t>
-  </si>
-  <si>
-    <t>holden</t>
-  </si>
-  <si>
-    <t>captiva</t>
-  </si>
-  <si>
-    <t>audi</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>tiguan</t>
-  </si>
-  <si>
-    <t>vitz</t>
-  </si>
-  <si>
-    <t>subaru</t>
-  </si>
-  <si>
-    <t>xv</t>
-  </si>
-  <si>
-    <t>forester</t>
-  </si>
-  <si>
-    <t>c-350-e</t>
-  </si>
-  <si>
-    <t>cx-3</t>
-  </si>
-  <si>
-    <t>330e</t>
-  </si>
-  <si>
-    <t>polo</t>
-  </si>
-  <si>
-    <t>passat</t>
-  </si>
-  <si>
-    <t>land-cruiser-prado</t>
-  </si>
-  <si>
-    <t>sportage</t>
-  </si>
-  <si>
-    <t>225xe</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>jetta</t>
-  </si>
-  <si>
-    <t>macan</t>
-  </si>
-  <si>
-    <t>s-400</t>
-  </si>
-  <si>
-    <t>c-220</t>
-  </si>
-  <si>
-    <t>lexus</t>
-  </si>
-  <si>
-    <t>rc-300</t>
-  </si>
-  <si>
-    <t>nx-300h</t>
-  </si>
-  <si>
-    <t>jaguar</t>
-  </si>
-  <si>
-    <t>xf</t>
-  </si>
-  <si>
-    <t>grace</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
-    <t>m235i</t>
-  </si>
-  <si>
-    <t>i8</t>
-  </si>
-  <si>
-    <t>435i</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>harrier</t>
-  </si>
-  <si>
-    <t>cx-9</t>
-  </si>
-  <si>
-    <t>vezel</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>sq5</t>
-  </si>
-  <si>
-    <t>rvr</t>
-  </si>
-  <si>
-    <t>cla-45</t>
-  </si>
-  <si>
-    <t>a-180</t>
-  </si>
-  <si>
-    <t>cx-5</t>
-  </si>
-  <si>
     <t>commodore</t>
   </si>
   <si>
@@ -509,9 +500,6 @@
     <t>gs-250</t>
   </si>
   <si>
-    <t>range-rover</t>
-  </si>
-  <si>
     <t>116i</t>
   </si>
   <si>
@@ -527,9 +515,6 @@
     <t>x-trail</t>
   </si>
   <si>
-    <t>getz</t>
-  </si>
-  <si>
     <t>320i</t>
   </si>
   <si>
@@ -543,6 +528,9 @@
   </si>
   <si>
     <t>slk-350</t>
+  </si>
+  <si>
+    <t>300-e</t>
   </si>
 </sst>
 </file>
@@ -893,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610AEF75-CCED-45D4-92E4-B5C558A07A8F}">
-  <dimension ref="A1:D258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A512A2-3844-49BF-AAEF-AD54F5979468}">
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +955,7 @@
         <v>2022</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -1023,7 +1011,7 @@
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1037,7 +1025,7 @@
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1051,7 +1039,7 @@
         <v>2022</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1177,7 +1165,7 @@
         <v>2022</v>
       </c>
       <c r="D20">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1205,7 +1193,7 @@
         <v>2022</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1219,7 +1207,7 @@
         <v>2022</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1261,7 +1249,7 @@
         <v>2022</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1289,7 +1277,7 @@
         <v>2022</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1303,7 +1291,7 @@
         <v>2022</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1317,7 +1305,7 @@
         <v>2022</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1331,7 +1319,7 @@
         <v>2022</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1345,7 +1333,7 @@
         <v>2022</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1359,26 +1347,26 @@
         <v>2022</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>2022</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1387,12 +1375,12 @@
         <v>2022</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -1401,12 +1389,12 @@
         <v>2022</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -1420,7 +1408,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -1429,7 +1417,7 @@
         <v>2022</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1443,60 +1431,60 @@
         <v>2022</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>2022</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>2022</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>2022</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C43">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1504,27 +1492,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
       </c>
       <c r="C45">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1532,24 +1520,24 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C46">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -1560,10 +1548,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -1574,80 +1562,80 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>2021</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>508</v>
       </c>
       <c r="C50">
         <v>2021</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>2021</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>2021</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>2021</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54">
-        <v>508</v>
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
       </c>
       <c r="C54">
         <v>2021</v>
@@ -1658,38 +1646,38 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -1700,10 +1688,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -1714,66 +1702,66 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C60">
         <v>2021</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C61">
         <v>2021</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C62">
         <v>2021</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>2021</v>
@@ -1784,13 +1772,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1798,13 +1786,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1812,13 +1800,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C66">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1826,13 +1814,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C67">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1840,24 +1828,24 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C68">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>2008</v>
       </c>
       <c r="C69">
         <v>2020</v>
@@ -1868,10 +1856,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C70">
         <v>2020</v>
@@ -1882,24 +1870,24 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <v>2020</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C72">
         <v>2020</v>
@@ -1910,38 +1898,38 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>2020</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C74">
         <v>2020</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75">
-        <v>2008</v>
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
       </c>
       <c r="C75">
         <v>2020</v>
@@ -1952,10 +1940,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
       </c>
       <c r="C76">
         <v>2020</v>
@@ -1966,16 +1954,16 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C77">
         <v>2020</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -1983,7 +1971,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>2020</v>
@@ -1994,41 +1982,41 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C79">
         <v>2020</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80">
+        <v>2019</v>
+      </c>
+      <c r="D80">
         <v>4</v>
-      </c>
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80">
-        <v>2020</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
       </c>
       <c r="C81">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2036,41 +2024,41 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C82">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C83">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C84">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2078,13 +2066,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
       </c>
       <c r="C85">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2092,13 +2080,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2106,10 +2094,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C87">
         <v>2019</v>
@@ -2120,52 +2108,52 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C88">
         <v>2019</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C89">
         <v>2019</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C90">
         <v>2019</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C91">
         <v>2019</v>
@@ -2176,7 +2164,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
@@ -2190,10 +2178,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" t="s">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
       </c>
       <c r="C93">
         <v>2019</v>
@@ -2204,7 +2192,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
         <v>86</v>
@@ -2218,10 +2206,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C95">
         <v>2019</v>
@@ -2232,10 +2220,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -2246,38 +2234,38 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C97">
         <v>2019</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C98">
         <v>2019</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C99">
         <v>2019</v>
@@ -2288,10 +2276,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C100">
         <v>2019</v>
@@ -2302,24 +2290,24 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
       </c>
       <c r="C101">
         <v>2019</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C102">
         <v>2019</v>
@@ -2330,13 +2318,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C103">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2344,27 +2332,27 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C104">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C105">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2372,55 +2360,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C107">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C108">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2428,150 +2416,150 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C110">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C111">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112">
         <v>2018</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C113">
         <v>2018</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C114">
         <v>2018</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>2018</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C116">
         <v>2018</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C117">
         <v>2018</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C118">
         <v>2018</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C119">
         <v>2018</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B120" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -2582,66 +2570,66 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C121">
         <v>2018</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B122" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C122">
         <v>2018</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C123">
         <v>2018</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C124">
         <v>2018</v>
       </c>
       <c r="D124">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="C125">
         <v>2018</v>
@@ -2652,13 +2640,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C126">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2666,55 +2654,55 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C127">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C128">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C129">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C130">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2722,13 +2710,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C131">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -2736,13 +2724,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C132">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2750,41 +2738,41 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C133">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B134" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C134">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>106</v>
+      </c>
+      <c r="B135" t="s">
         <v>108</v>
       </c>
-      <c r="B135" t="s">
-        <v>109</v>
-      </c>
       <c r="C135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2792,10 +2780,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C136">
         <v>2017</v>
@@ -2806,91 +2794,91 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C137">
         <v>2017</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C138">
         <v>2017</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>2017</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C140">
         <v>2017</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C141">
         <v>2017</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B142" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C142">
         <v>2017</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B143" t="s">
         <v>99</v>
@@ -2899,29 +2887,29 @@
         <v>2017</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C144">
         <v>2017</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B145" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C145">
         <v>2017</v>
@@ -2932,139 +2920,139 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B146" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C146">
         <v>2017</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C147">
         <v>2017</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C148">
         <v>2017</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C149">
         <v>2017</v>
       </c>
       <c r="D149">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C150">
         <v>2017</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C151">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C152">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C153">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C154">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C155">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -3072,125 +3060,125 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="C157">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C158">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B159" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C159">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C160">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B161" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C161">
         <v>2016</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C162">
         <v>2016</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B163" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C163">
         <v>2016</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C164">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3198,55 +3186,55 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C165">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D166">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C167">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B168" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C168">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -3254,69 +3242,69 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B170" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C170">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C171">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B172" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C172">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B173" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C173">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -3324,10 +3312,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="B174" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -3338,38 +3326,38 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B175" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C175">
         <v>2015</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C176">
         <v>2015</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B177" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C177">
         <v>2015</v>
@@ -3380,10 +3368,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B178" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C178">
         <v>2015</v>
@@ -3394,10 +3382,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C179">
         <v>2015</v>
@@ -3408,24 +3396,24 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="C180">
         <v>2015</v>
       </c>
       <c r="D180">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B181" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C181">
         <v>2015</v>
@@ -3436,10 +3424,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B182" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C182">
         <v>2015</v>
@@ -3450,10 +3438,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B183" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C183">
         <v>2015</v>
@@ -3464,13 +3452,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C184">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -3478,27 +3466,27 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C185">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C186">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3506,13 +3494,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C187">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -3520,13 +3508,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="C188">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3534,27 +3522,27 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B190" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C190">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -3562,13 +3550,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B191" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C191">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -3576,27 +3564,27 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B192" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B193" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="C193">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3604,13 +3592,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B194" t="s">
         <v>139</v>
       </c>
       <c r="C194">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -3618,44 +3606,44 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B195" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C195">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B196" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C196">
         <v>2014</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C197">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -3663,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C198">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -3677,52 +3665,52 @@
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C199">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B200" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C200">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C201">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D201">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
         <v>141</v>
       </c>
       <c r="C202">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -3730,41 +3718,41 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C203">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B204" t="s">
         <v>142</v>
       </c>
       <c r="C204">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="B205" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="C205">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -3772,27 +3760,27 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B206" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C206">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C207">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -3800,38 +3788,38 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B208" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C208">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B209" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C209">
         <v>2013</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="B210" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="C210">
         <v>2013</v>
@@ -3842,27 +3830,27 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C211">
         <v>2013</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C212">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -3870,13 +3858,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C213">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -3884,41 +3872,41 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C214">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C215">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D215">
-        <v>163</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B216" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="C216">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -3926,41 +3914,41 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="C217">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C218">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B219" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C219">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -3968,13 +3956,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B220" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="C220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -3982,66 +3970,66 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="C221">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B222" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C222">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B223" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="C224">
         <v>2012</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B225" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C225">
         <v>2012</v>
@@ -4052,38 +4040,38 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C226">
         <v>2012</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B227" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C227">
         <v>2012</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B228" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C228">
         <v>2012</v>
@@ -4094,24 +4082,24 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B229" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="C229">
         <v>2012</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B230" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C230">
         <v>2012</v>
@@ -4122,13 +4110,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C231">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -4136,13 +4124,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C232">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -4150,13 +4138,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B233" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C233">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -4164,16 +4152,16 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B234" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C234">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
@@ -4181,38 +4169,38 @@
         <v>128</v>
       </c>
       <c r="B235" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C235">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B236" t="s">
         <v>156</v>
       </c>
       <c r="C236">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B237" t="s">
         <v>157</v>
       </c>
       <c r="C237">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -4220,13 +4208,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="B238" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C238">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -4234,13 +4222,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B239" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="C239">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -4248,13 +4236,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B240" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C240">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -4262,13 +4250,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="B241" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="C241">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -4276,13 +4264,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B242" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C242">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -4290,13 +4278,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C243">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -4304,13 +4292,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B244" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C244">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D244">
         <v>1</v>
@@ -4318,13 +4306,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C245">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -4332,183 +4320,15 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="B246" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C246">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="D246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>131</v>
-      </c>
-      <c r="B247" t="s">
-        <v>132</v>
-      </c>
-      <c r="C247">
-        <v>2011</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>80</v>
-      </c>
-      <c r="B248" t="s">
-        <v>160</v>
-      </c>
-      <c r="C248">
-        <v>2011</v>
-      </c>
-      <c r="D248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>59</v>
-      </c>
-      <c r="B249" t="s">
-        <v>161</v>
-      </c>
-      <c r="C249">
-        <v>2011</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>77</v>
-      </c>
-      <c r="B250" t="s">
-        <v>162</v>
-      </c>
-      <c r="C250">
-        <v>2009</v>
-      </c>
-      <c r="D250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>41</v>
-      </c>
-      <c r="B251" t="s">
-        <v>163</v>
-      </c>
-      <c r="C251">
-        <v>2009</v>
-      </c>
-      <c r="D251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>59</v>
-      </c>
-      <c r="B252" t="s">
-        <v>164</v>
-      </c>
-      <c r="C252">
-        <v>2009</v>
-      </c>
-      <c r="D252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>165</v>
-      </c>
-      <c r="B253" t="s">
-        <v>166</v>
-      </c>
-      <c r="C253">
-        <v>2007</v>
-      </c>
-      <c r="D253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>166</v>
-      </c>
-      <c r="B254" t="s">
-        <v>23</v>
-      </c>
-      <c r="C254">
-        <v>2007</v>
-      </c>
-      <c r="D254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>59</v>
-      </c>
-      <c r="B255" t="s">
-        <v>167</v>
-      </c>
-      <c r="C255">
-        <v>2006</v>
-      </c>
-      <c r="D255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>11</v>
-      </c>
-      <c r="B256" t="s">
-        <v>65</v>
-      </c>
-      <c r="C256">
-        <v>2005</v>
-      </c>
-      <c r="D256">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257" t="s">
-        <v>168</v>
-      </c>
-      <c r="C257">
-        <v>2005</v>
-      </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>11</v>
-      </c>
-      <c r="B258" t="s">
-        <v>12</v>
-      </c>
-      <c r="C258">
-        <v>2004</v>
-      </c>
-      <c r="D258">
         <v>1</v>
       </c>
     </row>

--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molin\300_Process\PHEV_Process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somet\Documents\Engineering\PartIV\762\762-impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAA1F77-6D7B-4214-954A-A1EF45B05C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6167890-5C28-4793-9576-DC5A2EBADA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11270" yWindow="1900" windowWidth="7520" windowHeight="3370" xr2:uid="{FD5F6010-DD89-4094-ACBD-EB6F4160259C}"/>
+    <workbookView xWindow="4665" yWindow="2400" windowWidth="32505" windowHeight="15345" xr2:uid="{4A9C7B27-1D65-4421-A46B-644C7F91AB91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="160">
   <si>
     <t>Make</t>
   </si>
@@ -59,9 +59,6 @@
     <t>volvo</t>
   </si>
   <si>
-    <t>xc90</t>
-  </si>
-  <si>
     <t>xc60</t>
   </si>
   <si>
@@ -74,252 +71,264 @@
     <t>toyota</t>
   </si>
   <si>
+    <t>land-cruiser</t>
+  </si>
+  <si>
+    <t>hilux</t>
+  </si>
+  <si>
+    <t>tesla</t>
+  </si>
+  <si>
+    <t>model-y</t>
+  </si>
+  <si>
+    <t>skoda</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>octavia</t>
+  </si>
+  <si>
+    <t>renault</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>koleos</t>
+  </si>
+  <si>
+    <t>kadjar</t>
+  </si>
+  <si>
+    <t>arkana</t>
+  </si>
+  <si>
+    <t>peugeot</t>
+  </si>
+  <si>
+    <t>listing</t>
+  </si>
+  <si>
+    <t>triton</t>
+  </si>
+  <si>
+    <t>pajero</t>
+  </si>
+  <si>
+    <t>mirage</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>eclipse-cross</t>
+  </si>
+  <si>
+    <t>asx</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>land-rover</t>
+  </si>
+  <si>
+    <t>range-rover-velar</t>
+  </si>
+  <si>
+    <t>range-rover-evoque</t>
+  </si>
+  <si>
+    <t>range-rover</t>
+  </si>
+  <si>
+    <t>kia</t>
+  </si>
+  <si>
+    <t>sorento</t>
+  </si>
+  <si>
+    <t>niro</t>
+  </si>
+  <si>
+    <t>isuzu</t>
+  </si>
+  <si>
+    <t>mu-x</t>
+  </si>
+  <si>
+    <t>d-max</t>
+  </si>
+  <si>
+    <t>hyundai</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>santa-fe</t>
+  </si>
+  <si>
+    <t>kona</t>
+  </si>
+  <si>
+    <t>ioniq-5</t>
+  </si>
+  <si>
+    <t>ioniq</t>
+  </si>
+  <si>
+    <t>i30-n</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>citroen</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>byd</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>alfa-romeo</t>
+  </si>
+  <si>
+    <t>stelvio</t>
+  </si>
+  <si>
+    <t>t-roc</t>
+  </si>
+  <si>
+    <t>yaris</t>
+  </si>
+  <si>
     <t>prius</t>
   </si>
   <si>
-    <t>tesla</t>
-  </si>
-  <si>
-    <t>model-y</t>
-  </si>
-  <si>
-    <t>skoda</t>
-  </si>
-  <si>
-    <t>superb</t>
-  </si>
-  <si>
-    <t>octavia</t>
-  </si>
-  <si>
-    <t>renault</t>
-  </si>
-  <si>
-    <t>megane</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>captur</t>
-  </si>
-  <si>
-    <t>peugeot</t>
-  </si>
-  <si>
-    <t>listing</t>
-  </si>
-  <si>
-    <t>triton</t>
-  </si>
-  <si>
-    <t>pajero</t>
-  </si>
-  <si>
-    <t>mirage</t>
-  </si>
-  <si>
-    <t>express</t>
-  </si>
-  <si>
-    <t>eclipse-cross</t>
-  </si>
-  <si>
-    <t>asx</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>hs</t>
-  </si>
-  <si>
-    <t>land-rover</t>
-  </si>
-  <si>
-    <t>range-rover-velar</t>
-  </si>
-  <si>
-    <t>range-rover</t>
-  </si>
-  <si>
-    <t>kia</t>
-  </si>
-  <si>
-    <t>sorento</t>
-  </si>
-  <si>
-    <t>niro</t>
-  </si>
-  <si>
-    <t>isuzu</t>
-  </si>
-  <si>
-    <t>mu-x</t>
-  </si>
-  <si>
-    <t>d-max</t>
-  </si>
-  <si>
-    <t>hyundai</t>
-  </si>
-  <si>
-    <t>santa-fe</t>
-  </si>
-  <si>
-    <t>kona</t>
-  </si>
-  <si>
-    <t>ioniq-5</t>
-  </si>
-  <si>
-    <t>ioniq</t>
-  </si>
-  <si>
-    <t>i30</t>
-  </si>
-  <si>
-    <t>ford</t>
-  </si>
-  <si>
-    <t>transit</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>citroen</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>byd</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>bmw</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>alfa-romeo</t>
-  </si>
-  <si>
-    <t>stelvio</t>
-  </si>
-  <si>
-    <t>t-roc</t>
-  </si>
-  <si>
-    <t>yaris</t>
-  </si>
-  <si>
-    <t>land-cruiser</t>
+    <t>mercedes-benz</t>
+  </si>
+  <si>
+    <t>e-300</t>
+  </si>
+  <si>
+    <t>staria</t>
+  </si>
+  <si>
+    <t>supra</t>
+  </si>
+  <si>
+    <t>suzuki</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>nissan</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>juke</t>
+  </si>
+  <si>
+    <t>honda</t>
+  </si>
+  <si>
+    <t>hr-v</t>
+  </si>
+  <si>
+    <t>530e</t>
+  </si>
+  <si>
+    <t>v60</t>
+  </si>
+  <si>
+    <t>rav4</t>
+  </si>
+  <si>
+    <t>fortuner</t>
+  </si>
+  <si>
+    <t>corolla</t>
+  </si>
+  <si>
+    <t>camry</t>
+  </si>
+  <si>
+    <t>porsche</t>
+  </si>
+  <si>
+    <t>panamera</t>
+  </si>
+  <si>
+    <t>cayenne</t>
+  </si>
+  <si>
+    <t>nv350</t>
+  </si>
+  <si>
+    <t>mazda</t>
+  </si>
+  <si>
+    <t>cx-30</t>
+  </si>
+  <si>
+    <t>range-rover-sport</t>
+  </si>
+  <si>
+    <t>seltos</t>
+  </si>
+  <si>
+    <t>tucson</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>740e</t>
+  </si>
+  <si>
+    <t>golf</t>
   </si>
   <si>
     <t>highlander</t>
   </si>
   <si>
-    <t>mercedes-benz</t>
-  </si>
-  <si>
-    <t>e-300</t>
-  </si>
-  <si>
-    <t>venue</t>
-  </si>
-  <si>
-    <t>staria</t>
-  </si>
-  <si>
-    <t>530e</t>
-  </si>
-  <si>
-    <t>supra</t>
-  </si>
-  <si>
-    <t>rav4</t>
-  </si>
-  <si>
-    <t>raize</t>
-  </si>
-  <si>
-    <t>hilux</t>
-  </si>
-  <si>
-    <t>porsche</t>
-  </si>
-  <si>
-    <t>cayenne</t>
-  </si>
-  <si>
-    <t>nissan</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>juke</t>
-  </si>
-  <si>
-    <t>honda</t>
-  </si>
-  <si>
-    <t>hr-v</t>
-  </si>
-  <si>
-    <t>fortuner</t>
-  </si>
-  <si>
-    <t>corolla</t>
-  </si>
-  <si>
-    <t>koleos</t>
-  </si>
-  <si>
-    <t>panamera</t>
-  </si>
-  <si>
-    <t>nv350</t>
-  </si>
-  <si>
-    <t>mazda</t>
-  </si>
-  <si>
-    <t>cx-30</t>
-  </si>
-  <si>
-    <t>range-rover-sport</t>
-  </si>
-  <si>
-    <t>seltos</t>
-  </si>
-  <si>
-    <t>tucson</t>
-  </si>
-  <si>
-    <t>accent</t>
-  </si>
-  <si>
-    <t>ranger</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>740e</t>
-  </si>
-  <si>
-    <t>golf</t>
-  </si>
-  <si>
     <t>hiace</t>
   </si>
   <si>
@@ -341,184 +350,160 @@
     <t>e-350</t>
   </si>
   <si>
-    <t>discovery-sport</t>
+    <t>tiguan</t>
+  </si>
+  <si>
+    <t>vitz</t>
+  </si>
+  <si>
+    <t>subaru</t>
+  </si>
+  <si>
+    <t>xv</t>
+  </si>
+  <si>
+    <t>c-350-e</t>
+  </si>
+  <si>
+    <t>holden</t>
+  </si>
+  <si>
+    <t>astra</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>330e</t>
+  </si>
+  <si>
+    <t>225xe</t>
+  </si>
+  <si>
+    <t>passat</t>
+  </si>
+  <si>
+    <t>land-cruiser-prado</t>
   </si>
   <si>
     <t>audi</t>
   </si>
   <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>tiguan</t>
-  </si>
-  <si>
-    <t>vitz</t>
-  </si>
-  <si>
-    <t>subaru</t>
-  </si>
-  <si>
-    <t>xv</t>
-  </si>
-  <si>
-    <t>forester</t>
-  </si>
-  <si>
-    <t>c-350-e</t>
-  </si>
-  <si>
-    <t>cx-3</t>
-  </si>
-  <si>
-    <t>330e</t>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>jetta</t>
+  </si>
+  <si>
+    <t>outback</t>
+  </si>
+  <si>
+    <t>macan</t>
+  </si>
+  <si>
+    <t>e-nv200</t>
+  </si>
+  <si>
+    <t>s-400</t>
+  </si>
+  <si>
+    <t>c-250</t>
+  </si>
+  <si>
+    <t>c-220</t>
+  </si>
+  <si>
+    <t>lexus</t>
+  </si>
+  <si>
+    <t>rc-300</t>
+  </si>
+  <si>
+    <t>nx-300h</t>
+  </si>
+  <si>
+    <t>jaguar</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>435i</t>
+  </si>
+  <si>
+    <t>harrier</t>
+  </si>
+  <si>
+    <t>cx-9</t>
+  </si>
+  <si>
+    <t>vezel</t>
+  </si>
+  <si>
+    <t>116i</t>
+  </si>
+  <si>
+    <t>sq5</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>rvr</t>
+  </si>
+  <si>
+    <t>cla-45</t>
+  </si>
+  <si>
+    <t>cx-5</t>
+  </si>
+  <si>
+    <t>commodore</t>
+  </si>
+  <si>
+    <t>lancer</t>
+  </si>
+  <si>
+    <t>ml-350</t>
+  </si>
+  <si>
+    <t>rx-450h</t>
+  </si>
+  <si>
+    <t>ls-600</t>
+  </si>
+  <si>
+    <t>gs-250</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>328i</t>
   </si>
   <si>
     <t>polo</t>
   </si>
   <si>
-    <t>passat</t>
-  </si>
-  <si>
-    <t>land-cruiser-prado</t>
-  </si>
-  <si>
-    <t>sportage</t>
-  </si>
-  <si>
-    <t>225xe</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>jetta</t>
-  </si>
-  <si>
-    <t>camry</t>
-  </si>
-  <si>
-    <t>macan</t>
-  </si>
-  <si>
-    <t>s-400</t>
-  </si>
-  <si>
-    <t>c-220</t>
-  </si>
-  <si>
-    <t>lexus</t>
-  </si>
-  <si>
-    <t>rc-300</t>
-  </si>
-  <si>
-    <t>nx-300h</t>
-  </si>
-  <si>
-    <t>jeep</t>
-  </si>
-  <si>
-    <t>cherokee</t>
-  </si>
-  <si>
-    <t>jaguar</t>
-  </si>
-  <si>
-    <t>xf</t>
-  </si>
-  <si>
-    <t>grace</t>
-  </si>
-  <si>
-    <t>holden</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
-    <t>m235i</t>
-  </si>
-  <si>
-    <t>435i</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>harrier</t>
-  </si>
-  <si>
-    <t>cx-9</t>
-  </si>
-  <si>
-    <t>vezel</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>sq5</t>
-  </si>
-  <si>
-    <t>rvr</t>
-  </si>
-  <si>
-    <t>cla-45</t>
-  </si>
-  <si>
-    <t>a-180</t>
-  </si>
-  <si>
-    <t>cx-5</t>
-  </si>
-  <si>
-    <t>range-rover-evoque</t>
-  </si>
-  <si>
-    <t>commodore</t>
-  </si>
-  <si>
-    <t>lancer</t>
-  </si>
-  <si>
-    <t>r-350</t>
-  </si>
-  <si>
-    <t>ml-350</t>
-  </si>
-  <si>
-    <t>c-180</t>
-  </si>
-  <si>
-    <t>rx-450h</t>
-  </si>
-  <si>
-    <t>ls-600</t>
-  </si>
-  <si>
-    <t>gs-250</t>
-  </si>
-  <si>
-    <t>116i</t>
-  </si>
-  <si>
-    <t>is-250</t>
-  </si>
-  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>523i</t>
+    <t>kuga</t>
   </si>
   <si>
     <t>x-trail</t>
   </si>
   <si>
     <t>320i</t>
-  </si>
-  <si>
-    <t>suzuki</t>
   </si>
   <si>
     <t>grand-vitara</t>
@@ -881,14 +866,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A512A2-3844-49BF-AAEF-AD54F5979468}">
-  <dimension ref="A1:D246"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9075A47D-84DE-4F8C-8476-FA06FE2480B8}">
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -916,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -927,40 +912,40 @@
         <v>2022</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2022</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -972,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -986,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -997,10 +982,10 @@
         <v>2022</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1011,10 +996,10 @@
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1025,10 +1010,10 @@
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1039,10 +1024,10 @@
         <v>2022</v>
       </c>
       <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1056,37 +1041,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
         <v>3008</v>
       </c>
-      <c r="C13">
-        <v>2022</v>
-      </c>
-      <c r="D13">
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>2022</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>4</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1095,10 +1080,10 @@
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1109,38 +1094,38 @@
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>2022</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1165,10 +1150,10 @@
         <v>2022</v>
       </c>
       <c r="D20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1179,40 +1164,40 @@
         <v>2022</v>
       </c>
       <c r="D21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C22">
-        <v>2022</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>33</v>
-      </c>
-      <c r="C23">
-        <v>2022</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
@@ -1224,93 +1209,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C25">
-        <v>2022</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="C26">
-        <v>2022</v>
-      </c>
-      <c r="D26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C27">
-        <v>2022</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="C28">
-        <v>2022</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="C29">
-        <v>2022</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>43</v>
-      </c>
-      <c r="C30">
-        <v>2022</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -1322,9 +1307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -1333,12 +1318,12 @@
         <v>2022</v>
       </c>
       <c r="D32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -1347,26 +1332,26 @@
         <v>2022</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2022</v>
       </c>
       <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1375,12 +1360,12 @@
         <v>2022</v>
       </c>
       <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -1389,12 +1374,12 @@
         <v>2022</v>
       </c>
       <c r="D36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -1406,152 +1391,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>2022</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>2022</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>2022</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>2022</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>2022</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>2022</v>
+      </c>
+      <c r="D43">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39">
-        <v>2022</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40">
-        <v>2022</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="C41">
-        <v>2022</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C44">
+        <v>2022</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>58</v>
       </c>
-      <c r="C42">
-        <v>2022</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43">
-        <v>2021</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>2022</v>
+      </c>
+      <c r="D45">
         <v>9</v>
       </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44">
-        <v>2021</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="C45">
-        <v>2021</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47">
+        <v>2022</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>61</v>
       </c>
-      <c r="C47">
-        <v>2021</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -1560,12 +1545,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -1574,12 +1559,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50">
-        <v>508</v>
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -1588,12 +1573,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -1602,40 +1587,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>2021</v>
       </c>
       <c r="D52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>2021</v>
       </c>
       <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>508</v>
       </c>
       <c r="C54">
         <v>2021</v>
@@ -1644,40 +1629,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -1686,12 +1671,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -1700,40 +1685,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C60">
         <v>2021</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -1742,12 +1727,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>2021</v>
@@ -1756,12 +1741,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C63">
         <v>2021</v>
@@ -1770,37 +1755,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C64">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -1812,40 +1797,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>2020</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
         <v>72</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
       </c>
       <c r="C68">
         <v>2020</v>
       </c>
       <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69">
-        <v>2008</v>
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
       </c>
       <c r="C69">
         <v>2020</v>
@@ -1854,23 +1839,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C70">
         <v>2020</v>
       </c>
       <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -1879,57 +1864,57 @@
         <v>2020</v>
       </c>
       <c r="D71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>2020</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C73">
         <v>2020</v>
       </c>
       <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C74">
         <v>2020</v>
       </c>
       <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
       </c>
       <c r="C75">
         <v>2020</v>
@@ -1938,12 +1923,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
       </c>
       <c r="C76">
         <v>2020</v>
@@ -1952,12 +1937,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C77">
         <v>2020</v>
@@ -1966,12 +1951,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>78</v>
       </c>
       <c r="C78">
         <v>2020</v>
@@ -1980,12 +1965,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>2020</v>
@@ -1994,68 +1979,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <v>2019</v>
       </c>
       <c r="D80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <v>2019</v>
       </c>
       <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C82">
         <v>2019</v>
       </c>
       <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>2019</v>
       </c>
       <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>2019</v>
@@ -2064,12 +2049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <v>2019</v>
@@ -2078,12 +2063,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>2019</v>
@@ -2092,12 +2077,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>2019</v>
@@ -2106,40 +2091,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>2019</v>
       </c>
       <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>2019</v>
       </c>
       <c r="D89">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C90">
         <v>2019</v>
@@ -2148,26 +2133,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C91">
         <v>2019</v>
       </c>
       <c r="D91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C92">
         <v>2019</v>
@@ -2176,26 +2161,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>30</v>
       </c>
       <c r="C93">
         <v>2019</v>
       </c>
       <c r="D93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C94">
         <v>2019</v>
@@ -2204,26 +2189,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
       </c>
       <c r="C95">
         <v>2019</v>
       </c>
       <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -2232,40 +2217,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C97">
         <v>2019</v>
       </c>
       <c r="D97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C98">
         <v>2019</v>
       </c>
       <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C99">
         <v>2019</v>
@@ -2274,26 +2259,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C100">
         <v>2019</v>
       </c>
       <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C101">
         <v>2019</v>
@@ -2302,12 +2287,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C102">
         <v>2019</v>
@@ -2316,12 +2301,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C103">
         <v>2018</v>
@@ -2330,26 +2315,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C104">
         <v>2018</v>
       </c>
       <c r="D104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
         <v>11</v>
-      </c>
-      <c r="B105" t="s">
-        <v>61</v>
       </c>
       <c r="C105">
         <v>2018</v>
@@ -2358,12 +2343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C106">
         <v>2018</v>
@@ -2372,12 +2357,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C107">
         <v>2018</v>
@@ -2386,26 +2371,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C108">
         <v>2018</v>
       </c>
       <c r="D108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C109">
         <v>2018</v>
@@ -2414,54 +2399,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C110">
         <v>2018</v>
       </c>
       <c r="D110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C111">
         <v>2018</v>
       </c>
       <c r="D111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C112">
         <v>2018</v>
       </c>
       <c r="D112">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C113">
         <v>2018</v>
@@ -2470,12 +2455,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
         <v>74</v>
-      </c>
-      <c r="B114" t="s">
-        <v>75</v>
       </c>
       <c r="C114">
         <v>2018</v>
@@ -2484,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -2495,15 +2480,15 @@
         <v>2018</v>
       </c>
       <c r="D115">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C116">
         <v>2018</v>
@@ -2512,12 +2497,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C117">
         <v>2018</v>
@@ -2526,26 +2511,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B118" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C118">
         <v>2018</v>
       </c>
       <c r="D118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C119">
         <v>2018</v>
@@ -2554,12 +2539,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -2568,40 +2553,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C121">
         <v>2018</v>
       </c>
       <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C122">
         <v>2018</v>
       </c>
       <c r="D122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C123">
         <v>2018</v>
@@ -2610,54 +2595,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C124">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C125">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C126">
         <v>2017</v>
       </c>
       <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>2017</v>
@@ -2666,40 +2651,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C128">
         <v>2017</v>
       </c>
       <c r="D128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="C129">
         <v>2017</v>
       </c>
       <c r="D129">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C130">
         <v>2017</v>
@@ -2708,26 +2693,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B131" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C131">
         <v>2017</v>
       </c>
       <c r="D131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B132" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -2736,54 +2721,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B133" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C133">
         <v>2017</v>
       </c>
       <c r="D133">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>2017</v>
       </c>
       <c r="D134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C135">
         <v>2017</v>
       </c>
       <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B136" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C136">
         <v>2017</v>
@@ -2792,96 +2777,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C137">
         <v>2017</v>
       </c>
       <c r="D137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B138" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C138">
         <v>2017</v>
       </c>
       <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C139">
         <v>2017</v>
       </c>
       <c r="D139">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" t="s">
-        <v>26</v>
+        <v>88</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
       </c>
       <c r="C140">
         <v>2017</v>
       </c>
       <c r="D140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C141">
         <v>2017</v>
       </c>
       <c r="D141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C142">
         <v>2017</v>
       </c>
       <c r="D142">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B143" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C143">
         <v>2017</v>
@@ -2890,110 +2875,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C144">
         <v>2017</v>
       </c>
       <c r="D144">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B145" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C145">
         <v>2017</v>
       </c>
       <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C146">
         <v>2017</v>
       </c>
       <c r="D146">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C147">
         <v>2017</v>
       </c>
       <c r="D147">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C148">
         <v>2017</v>
       </c>
       <c r="D148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C149">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D149">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C150">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D150">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C151">
         <v>2016</v>
@@ -3002,82 +2987,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="C152">
         <v>2016</v>
       </c>
       <c r="D152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C153">
         <v>2016</v>
       </c>
       <c r="D153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B154" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C154">
         <v>2016</v>
       </c>
       <c r="D154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B155" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C155">
         <v>2016</v>
       </c>
       <c r="D155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="C156">
         <v>2016</v>
       </c>
       <c r="D156">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B157" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C157">
         <v>2016</v>
@@ -3086,12 +3071,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B158" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C158">
         <v>2016</v>
@@ -3100,82 +3085,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C159">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C160">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C161">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C162">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D162">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B163" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C164">
         <v>2015</v>
@@ -3184,40 +3169,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B165" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C165">
         <v>2015</v>
       </c>
       <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>11</v>
-      </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166">
         <v>2015</v>
       </c>
       <c r="D166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B167" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -3226,12 +3211,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B168" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C168">
         <v>2015</v>
@@ -3240,26 +3225,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="C169">
         <v>2015</v>
       </c>
       <c r="D169">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B170" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C170">
         <v>2015</v>
@@ -3268,12 +3253,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B171" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C171">
         <v>2015</v>
@@ -3282,12 +3267,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B172" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C172">
         <v>2015</v>
@@ -3296,12 +3281,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B173" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C173">
         <v>2015</v>
@@ -3310,12 +3295,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="B174" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -3324,12 +3309,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B175" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C175">
         <v>2015</v>
@@ -3338,12 +3323,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B176" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -3352,12 +3337,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="C177">
         <v>2015</v>
@@ -3366,9 +3351,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="B178" t="s">
         <v>132</v>
@@ -3380,12 +3365,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="C179">
         <v>2015</v>
@@ -3394,96 +3379,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="B180" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C180">
         <v>2015</v>
       </c>
       <c r="D180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
+        <v>114</v>
+      </c>
+      <c r="C181">
+        <v>2014</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>66</v>
+      </c>
+      <c r="C182">
+        <v>2014</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
         <v>134</v>
       </c>
-      <c r="C181">
-        <v>2015</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>102</v>
-      </c>
-      <c r="B182" t="s">
-        <v>135</v>
-      </c>
-      <c r="C182">
-        <v>2015</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>102</v>
-      </c>
-      <c r="B183" t="s">
-        <v>117</v>
-      </c>
       <c r="C183">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="C184">
         <v>2014</v>
       </c>
       <c r="D184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C185">
         <v>2014</v>
       </c>
       <c r="D185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="B186" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C186">
         <v>2014</v>
@@ -3492,9 +3477,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B187" t="s">
         <v>136</v>
@@ -3503,15 +3488,15 @@
         <v>2014</v>
       </c>
       <c r="D187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="B188" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C188">
         <v>2014</v>
@@ -3520,26 +3505,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C189">
         <v>2014</v>
       </c>
       <c r="D189">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B190" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C190">
         <v>2014</v>
@@ -3548,96 +3533,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B191" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C191">
         <v>2014</v>
       </c>
       <c r="D191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C192">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D192">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C193">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C194">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B195" t="s">
+        <v>107</v>
+      </c>
+      <c r="C195">
+        <v>2013</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196">
+        <v>2013</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
         <v>140</v>
-      </c>
-      <c r="C195">
-        <v>2014</v>
-      </c>
-      <c r="D195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196" t="s">
-        <v>135</v>
-      </c>
-      <c r="C196">
-        <v>2014</v>
-      </c>
-      <c r="D196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>9</v>
-      </c>
-      <c r="B197" t="s">
-        <v>93</v>
       </c>
       <c r="C197">
         <v>2013</v>
@@ -3646,40 +3631,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C198">
         <v>2013</v>
       </c>
       <c r="D198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="C199">
         <v>2013</v>
       </c>
       <c r="D199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B200" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C200">
         <v>2013</v>
@@ -3688,12 +3673,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B201" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C201">
         <v>2013</v>
@@ -3702,40 +3687,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B202" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C202">
         <v>2013</v>
       </c>
       <c r="D202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="C203">
         <v>2013</v>
       </c>
       <c r="D203">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B204" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C204">
         <v>2013</v>
@@ -3744,12 +3729,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B205" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C205">
         <v>2013</v>
@@ -3758,138 +3743,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>2012</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>66</v>
+      </c>
+      <c r="C207">
+        <v>2012</v>
+      </c>
+      <c r="D207">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>99</v>
+      </c>
+      <c r="C208">
+        <v>2012</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209">
+        <v>2012</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210">
+        <v>2012</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
         <v>144</v>
       </c>
-      <c r="C206">
-        <v>2013</v>
-      </c>
-      <c r="D206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207" t="s">
-        <v>86</v>
-      </c>
-      <c r="C207">
-        <v>2013</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>32</v>
-      </c>
-      <c r="B208" t="s">
+      <c r="C211">
+        <v>2012</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>67</v>
+      </c>
+      <c r="B212" t="s">
         <v>145</v>
-      </c>
-      <c r="C208">
-        <v>2013</v>
-      </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>35</v>
-      </c>
-      <c r="B209" t="s">
-        <v>36</v>
-      </c>
-      <c r="C209">
-        <v>2013</v>
-      </c>
-      <c r="D209">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
-        <v>131</v>
-      </c>
-      <c r="B210" t="s">
-        <v>146</v>
-      </c>
-      <c r="C210">
-        <v>2013</v>
-      </c>
-      <c r="D210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
-        <v>55</v>
-      </c>
-      <c r="B211" t="s">
-        <v>56</v>
-      </c>
-      <c r="C211">
-        <v>2013</v>
-      </c>
-      <c r="D211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>8</v>
       </c>
       <c r="C212">
         <v>2012</v>
       </c>
       <c r="D212">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B213" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C213">
         <v>2012</v>
       </c>
       <c r="D213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C214">
         <v>2012</v>
       </c>
       <c r="D214">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="B215" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C215">
         <v>2012</v>
@@ -3898,12 +3883,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B216" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C216">
         <v>2012</v>
@@ -3912,26 +3897,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C217">
         <v>2012</v>
       </c>
       <c r="D217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B218" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C218">
         <v>2012</v>
@@ -3940,12 +3925,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B219" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C219">
         <v>2012</v>
@@ -3954,9 +3939,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B220" t="s">
         <v>149</v>
@@ -3968,9 +3953,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B221" t="s">
         <v>150</v>
@@ -3982,353 +3967,213 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
+        <v>104</v>
+      </c>
+      <c r="C222">
+        <v>2011</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s">
         <v>151</v>
       </c>
-      <c r="C222">
-        <v>2012</v>
-      </c>
-      <c r="D222">
+      <c r="C223">
+        <v>2011</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>125</v>
+      </c>
+      <c r="B224" t="s">
+        <v>146</v>
+      </c>
+      <c r="C224">
+        <v>2011</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>128</v>
+      </c>
+      <c r="B225" t="s">
+        <v>129</v>
+      </c>
+      <c r="C225">
+        <v>2011</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>76</v>
+      </c>
+      <c r="B226" t="s">
+        <v>152</v>
+      </c>
+      <c r="C226">
+        <v>2011</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>52</v>
+      </c>
+      <c r="B227" t="s">
+        <v>153</v>
+      </c>
+      <c r="C227">
+        <v>2011</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>73</v>
+      </c>
+      <c r="B228" t="s">
+        <v>154</v>
+      </c>
+      <c r="C228">
+        <v>2009</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229" t="s">
+        <v>155</v>
+      </c>
+      <c r="C229">
+        <v>2009</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>71</v>
+      </c>
+      <c r="B230" t="s">
+        <v>156</v>
+      </c>
+      <c r="C230">
+        <v>2007</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>156</v>
+      </c>
+      <c r="B231" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231">
+        <v>2007</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" t="s">
+        <v>157</v>
+      </c>
+      <c r="C232">
+        <v>2006</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>11</v>
+      </c>
+      <c r="C233">
+        <v>2005</v>
+      </c>
+      <c r="D233">
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>123</v>
-      </c>
-      <c r="B223" t="s">
-        <v>152</v>
-      </c>
-      <c r="C223">
-        <v>2012</v>
-      </c>
-      <c r="D223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>123</v>
-      </c>
-      <c r="B224" t="s">
-        <v>153</v>
-      </c>
-      <c r="C224">
-        <v>2012</v>
-      </c>
-      <c r="D224">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>32</v>
-      </c>
-      <c r="B225" t="s">
-        <v>34</v>
-      </c>
-      <c r="C225">
-        <v>2012</v>
-      </c>
-      <c r="D225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>128</v>
-      </c>
-      <c r="B226" t="s">
-        <v>129</v>
-      </c>
-      <c r="C226">
-        <v>2012</v>
-      </c>
-      <c r="D226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>41</v>
-      </c>
-      <c r="B227" t="s">
-        <v>42</v>
-      </c>
-      <c r="C227">
-        <v>2012</v>
-      </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>55</v>
-      </c>
-      <c r="B228" t="s">
-        <v>56</v>
-      </c>
-      <c r="C228">
-        <v>2012</v>
-      </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>55</v>
-      </c>
-      <c r="B229" t="s">
-        <v>139</v>
-      </c>
-      <c r="C229">
-        <v>2012</v>
-      </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
-        <v>55</v>
-      </c>
-      <c r="B230" t="s">
-        <v>154</v>
-      </c>
-      <c r="C230">
-        <v>2012</v>
-      </c>
-      <c r="D230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
-        <v>9</v>
-      </c>
-      <c r="B231" t="s">
-        <v>104</v>
-      </c>
-      <c r="C231">
-        <v>2011</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
-        <v>9</v>
-      </c>
-      <c r="B232" t="s">
-        <v>112</v>
-      </c>
-      <c r="C232">
-        <v>2011</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
-        <v>123</v>
-      </c>
-      <c r="B233" t="s">
-        <v>151</v>
-      </c>
-      <c r="C233">
-        <v>2011</v>
-      </c>
-      <c r="D233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B234" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C234">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B235" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C235">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="D235">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C236">
-        <v>2011</v>
+        <v>1989</v>
       </c>
       <c r="D236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>55</v>
-      </c>
-      <c r="B237" t="s">
-        <v>157</v>
-      </c>
-      <c r="C237">
-        <v>2011</v>
-      </c>
-      <c r="D237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>74</v>
-      </c>
-      <c r="B238" t="s">
-        <v>158</v>
-      </c>
-      <c r="C238">
-        <v>2009</v>
-      </c>
-      <c r="D238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>55</v>
-      </c>
-      <c r="B239" t="s">
-        <v>159</v>
-      </c>
-      <c r="C239">
-        <v>2009</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>160</v>
-      </c>
-      <c r="B240" t="s">
-        <v>161</v>
-      </c>
-      <c r="C240">
-        <v>2007</v>
-      </c>
-      <c r="D240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>161</v>
-      </c>
-      <c r="B241" t="s">
-        <v>23</v>
-      </c>
-      <c r="C241">
-        <v>2007</v>
-      </c>
-      <c r="D241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
-        <v>55</v>
-      </c>
-      <c r="B242" t="s">
-        <v>162</v>
-      </c>
-      <c r="C242">
-        <v>2006</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>11</v>
-      </c>
-      <c r="B243" t="s">
-        <v>61</v>
-      </c>
-      <c r="C243">
-        <v>2005</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>63</v>
-      </c>
-      <c r="B244" t="s">
-        <v>163</v>
-      </c>
-      <c r="C244">
-        <v>2005</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>11</v>
-      </c>
-      <c r="B245" t="s">
-        <v>12</v>
-      </c>
-      <c r="C245">
-        <v>2004</v>
-      </c>
-      <c r="D245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>63</v>
-      </c>
-      <c r="B246" t="s">
-        <v>164</v>
-      </c>
-      <c r="C246">
-        <v>1991</v>
-      </c>
-      <c r="D246">
         <v>1</v>
       </c>
     </row>

--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somet\Documents\Engineering\PartIV\762\762-impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaru\Documents\UiPath\762-impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6167890-5C28-4793-9576-DC5A2EBADA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA40BE4D-E8C9-418C-8477-B4D9408A9095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2400" windowWidth="32505" windowHeight="15345" xr2:uid="{4A9C7B27-1D65-4421-A46B-644C7F91AB91}"/>
+    <workbookView xWindow="-30900" yWindow="3225" windowWidth="28800" windowHeight="15435" xr2:uid="{9E0F050F-3DE4-421E-A5CE-980632B61C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="168">
   <si>
     <t>Make</t>
   </si>
@@ -59,6 +57,9 @@
     <t>volvo</t>
   </si>
   <si>
+    <t>xc90</t>
+  </si>
+  <si>
     <t>xc60</t>
   </si>
   <si>
@@ -71,6 +72,9 @@
     <t>toyota</t>
   </si>
   <si>
+    <t>prius</t>
+  </si>
+  <si>
     <t>land-cruiser</t>
   </si>
   <si>
@@ -110,9 +114,6 @@
     <t>peugeot</t>
   </si>
   <si>
-    <t>listing</t>
-  </si>
-  <si>
     <t>triton</t>
   </si>
   <si>
@@ -236,7 +237,7 @@
     <t>yaris</t>
   </si>
   <si>
-    <t>prius</t>
+    <t>rav4</t>
   </si>
   <si>
     <t>mercedes-benz</t>
@@ -251,6 +252,9 @@
     <t>supra</t>
   </si>
   <si>
+    <t>raize</t>
+  </si>
+  <si>
     <t>suzuki</t>
   </si>
   <si>
@@ -278,9 +282,6 @@
     <t>v60</t>
   </si>
   <si>
-    <t>rav4</t>
-  </si>
-  <si>
     <t>fortuner</t>
   </si>
   <si>
@@ -362,6 +363,9 @@
     <t>xv</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
     <t>c-350-e</t>
   </si>
   <si>
@@ -380,6 +384,9 @@
     <t>225xe</t>
   </si>
   <si>
+    <t>polo</t>
+  </si>
+  <si>
     <t>passat</t>
   </si>
   <si>
@@ -434,12 +441,18 @@
     <t>colorado</t>
   </si>
   <si>
+    <t>m235i</t>
+  </si>
+  <si>
     <t>i8</t>
   </si>
   <si>
     <t>435i</t>
   </si>
   <si>
+    <t>a4</t>
+  </si>
+  <si>
     <t>harrier</t>
   </si>
   <si>
@@ -455,7 +468,7 @@
     <t>sq5</t>
   </si>
   <si>
-    <t>a4</t>
+    <t>navara</t>
   </si>
   <si>
     <t>rvr</t>
@@ -464,6 +477,9 @@
     <t>cla-45</t>
   </si>
   <si>
+    <t>a-180</t>
+  </si>
+  <si>
     <t>cx-5</t>
   </si>
   <si>
@@ -473,9 +489,15 @@
     <t>lancer</t>
   </si>
   <si>
+    <t>r-350</t>
+  </si>
+  <si>
     <t>ml-350</t>
   </si>
   <si>
+    <t>c-180</t>
+  </si>
+  <si>
     <t>rx-450h</t>
   </si>
   <si>
@@ -491,13 +513,13 @@
     <t>328i</t>
   </si>
   <si>
-    <t>polo</t>
-  </si>
-  <si>
     <t>fit</t>
   </si>
   <si>
     <t>kuga</t>
+  </si>
+  <si>
+    <t>523i</t>
   </si>
   <si>
     <t>x-trail</t>
@@ -866,8 +888,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9075A47D-84DE-4F8C-8476-FA06FE2480B8}">
-  <dimension ref="A1:D236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67EDFE0-EB8B-4D43-B1DF-61476105CA92}">
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,40 +934,40 @@
         <v>2022</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -959,10 +981,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -973,10 +995,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -990,21 +1012,21 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1015,21 +1037,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1038,12 +1060,12 @@
         <v>2022</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -1057,21 +1079,21 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14">
-        <v>3008</v>
       </c>
       <c r="C14">
         <v>2022</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1080,21 +1102,21 @@
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
         <v>25</v>
+      </c>
+      <c r="B16">
+        <v>3008</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1130,7 @@
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,13 +1138,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>2022</v>
       </c>
       <c r="D18">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1186,7 @@
         <v>2022</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,40 +1200,40 @@
         <v>2022</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
       </c>
       <c r="C23">
         <v>2022</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
       </c>
       <c r="C24">
         <v>2022</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -1225,7 +1247,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -1239,21 +1261,21 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
       </c>
       <c r="C27">
         <v>2022</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -1262,26 +1284,26 @@
         <v>2022</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
       </c>
       <c r="C29">
         <v>2022</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -1290,15 +1312,15 @@
         <v>2022</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1309,7 +1331,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -1318,12 +1340,12 @@
         <v>2022</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -1332,12 +1354,12 @@
         <v>2022</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
@@ -1346,12 +1368,12 @@
         <v>2022</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1360,12 +1382,12 @@
         <v>2022</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>49</v>
@@ -1374,12 +1396,12 @@
         <v>2022</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -1393,7 +1415,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
@@ -1407,24 +1429,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>2022</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>2022</v>
@@ -1435,10 +1457,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -1449,10 +1471,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -1463,69 +1485,69 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>2022</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>2022</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>2022</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>2022</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1533,10 +1555,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -1547,10 +1569,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -1561,10 +1583,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -1575,24 +1597,24 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>2021</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -1603,10 +1625,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>508</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -1617,16 +1639,16 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54">
-        <v>508</v>
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,63 +1656,63 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>2021</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C58">
         <v>2021</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>2021</v>
@@ -1701,24 +1723,24 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>2021</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -1729,10 +1751,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C62">
         <v>2021</v>
@@ -1743,27 +1765,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <v>2021</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C64">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1771,13 +1793,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C65">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1785,38 +1807,38 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C66">
         <v>2020</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <v>2020</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C68">
         <v>2020</v>
@@ -1827,44 +1849,44 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>2020</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C70">
         <v>2020</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>2020</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,13 +1894,13 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C72">
         <v>2020</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,35 +1908,35 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C73">
         <v>2020</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
       </c>
       <c r="C74">
         <v>2020</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
       </c>
       <c r="C75">
         <v>2020</v>
@@ -1925,10 +1947,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C76">
         <v>2020</v>
@@ -1939,10 +1961,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>2020</v>
@@ -1953,10 +1975,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>2020</v>
@@ -1967,13 +1989,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C79">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1981,52 +2003,52 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C80">
         <v>2019</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>2019</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>2019</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>2019</v>
@@ -2037,24 +2059,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <v>2019</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>2019</v>
@@ -2065,10 +2087,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>2019</v>
@@ -2079,10 +2101,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>2019</v>
@@ -2093,10 +2115,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>2019</v>
@@ -2107,10 +2129,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C89">
         <v>2019</v>
@@ -2121,16 +2143,16 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C90">
         <v>2019</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,13 +2160,13 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C91">
         <v>2019</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2152,7 +2174,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C92">
         <v>2019</v>
@@ -2163,10 +2185,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>2019</v>
@@ -2177,38 +2199,38 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" t="s">
         <v>89</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
       </c>
       <c r="C94">
         <v>2019</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
       </c>
       <c r="C95">
         <v>2019</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -2219,10 +2241,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C97">
         <v>2019</v>
@@ -2233,10 +2255,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C98">
         <v>2019</v>
@@ -2247,38 +2269,38 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="C99">
         <v>2019</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C100">
         <v>2019</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C101">
         <v>2019</v>
@@ -2289,13 +2311,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C102">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2303,10 +2325,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C103">
         <v>2018</v>
@@ -2317,10 +2339,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>2018</v>
@@ -2331,10 +2353,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>2018</v>
@@ -2345,10 +2367,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C106">
         <v>2018</v>
@@ -2359,10 +2381,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C107">
         <v>2018</v>
@@ -2373,10 +2395,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C108">
         <v>2018</v>
@@ -2387,10 +2409,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C109">
         <v>2018</v>
@@ -2401,24 +2423,24 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C110">
         <v>2018</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C111">
         <v>2018</v>
@@ -2429,24 +2451,24 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C112">
         <v>2018</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C113">
         <v>2018</v>
@@ -2457,10 +2479,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C114">
         <v>2018</v>
@@ -2480,7 +2502,7 @@
         <v>2018</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C116">
         <v>2018</v>
@@ -2499,10 +2521,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C117">
         <v>2018</v>
@@ -2513,10 +2535,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C118">
         <v>2018</v>
@@ -2527,10 +2549,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C119">
         <v>2018</v>
@@ -2541,10 +2563,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -2555,10 +2577,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C121">
         <v>2018</v>
@@ -2569,10 +2591,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C122">
         <v>2018</v>
@@ -2583,10 +2605,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C123">
         <v>2018</v>
@@ -2597,10 +2619,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C124">
         <v>2017</v>
@@ -2611,10 +2633,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C125">
         <v>2017</v>
@@ -2625,21 +2647,21 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C126">
         <v>2017</v>
       </c>
       <c r="D126">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -2648,43 +2670,43 @@
         <v>2017</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C128">
         <v>2017</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C129">
         <v>2017</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C130">
         <v>2017</v>
@@ -2695,10 +2717,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>2017</v>
@@ -2709,10 +2731,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B132" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -2723,136 +2745,136 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C133">
         <v>2017</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="C134">
         <v>2017</v>
       </c>
       <c r="D134">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C135">
         <v>2017</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>2017</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C137">
         <v>2017</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C138">
         <v>2017</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B139" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C139">
         <v>2017</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>88</v>
-      </c>
-      <c r="B140">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="B140" t="s">
+        <v>103</v>
       </c>
       <c r="C140">
         <v>2017</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C141">
         <v>2017</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>109</v>
-      </c>
-      <c r="B142" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
       </c>
       <c r="C142">
         <v>2017</v>
@@ -2863,122 +2885,122 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C143">
         <v>2017</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C144">
         <v>2017</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C145">
         <v>2017</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C146">
         <v>2017</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C147">
         <v>2017</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C148">
         <v>2017</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B149" t="s">
         <v>114</v>
       </c>
       <c r="C149">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B150" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C150">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C151">
         <v>2016</v>
@@ -2989,181 +3011,181 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="C152">
         <v>2016</v>
       </c>
       <c r="D152">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C153">
         <v>2016</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C154">
         <v>2016</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C155">
         <v>2016</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C156">
         <v>2016</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C157">
         <v>2016</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="C158">
         <v>2016</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B159" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C159">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C160">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C161">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C162">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B163" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C163">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B164" t="s">
         <v>120</v>
       </c>
       <c r="C164">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3171,7 +3193,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
         <v>121</v>
@@ -3185,24 +3207,24 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C166">
         <v>2015</v>
       </c>
       <c r="D166">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -3213,10 +3235,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="C168">
         <v>2015</v>
@@ -3227,10 +3249,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C169">
         <v>2015</v>
@@ -3241,24 +3263,24 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C170">
         <v>2015</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B171" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C171">
         <v>2015</v>
@@ -3269,24 +3291,24 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="C172">
         <v>2015</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B173" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C173">
         <v>2015</v>
@@ -3297,10 +3319,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -3311,10 +3333,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B175" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C175">
         <v>2015</v>
@@ -3325,10 +3347,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -3339,10 +3361,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B177" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C177">
         <v>2015</v>
@@ -3353,7 +3375,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="B178" t="s">
         <v>132</v>
@@ -3367,10 +3389,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B179" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="C179">
         <v>2015</v>
@@ -3381,27 +3403,27 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B180" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C180">
         <v>2015</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B181" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C181">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -3409,27 +3431,27 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B182" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C182">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B183" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C183">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -3437,27 +3459,27 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="C184">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D184">
-        <v>116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C185">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -3465,13 +3487,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C186">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3479,24 +3501,24 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B187" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C187">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C188">
         <v>2014</v>
@@ -3507,24 +3529,24 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="C189">
         <v>2014</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C190">
         <v>2014</v>
@@ -3535,41 +3557,41 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="C191">
         <v>2014</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B192" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C192">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B193" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="C193">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3577,27 +3599,27 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B194" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="C194">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B195" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C195">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -3605,13 +3627,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="C196">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -3619,38 +3641,38 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="B197" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C197">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="C198">
         <v>2013</v>
       </c>
       <c r="D198">
-        <v>164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C199">
         <v>2013</v>
@@ -3661,52 +3683,52 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C200">
         <v>2013</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C201">
         <v>2013</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C202">
         <v>2013</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B203" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C203">
         <v>2013</v>
@@ -3717,10 +3739,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B204" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="C204">
         <v>2013</v>
@@ -3731,10 +3753,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C205">
         <v>2013</v>
@@ -3745,83 +3767,83 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B207" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="C207">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D207">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B208" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="C208">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="C209">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C210">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B211" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C211">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -3829,80 +3851,80 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B212" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C212">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B213" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C213">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="B214" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="C214">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="B215" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C215">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C216">
         <v>2012</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C217">
         <v>2012</v>
@@ -3913,49 +3935,49 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C218">
         <v>2012</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C219">
         <v>2012</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C220">
         <v>2012</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s">
         <v>150</v>
@@ -3969,13 +3991,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B222" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C222">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -3983,13 +4005,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B223" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C223">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -3997,13 +4019,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="B224" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C224">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -4014,24 +4036,24 @@
         <v>128</v>
       </c>
       <c r="B225" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C225">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C226">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -4039,27 +4061,27 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B227" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C227">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="C228">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4067,13 +4089,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="B229" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C229">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4081,13 +4103,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B230" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="C230">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -4095,13 +4117,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C231">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -4109,13 +4131,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B232" t="s">
         <v>157</v>
       </c>
       <c r="C232">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -4123,27 +4145,27 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="C233">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B234" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C234">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -4151,13 +4173,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C235">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -4165,15 +4187,211 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C236">
+        <v>2011</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>128</v>
+      </c>
+      <c r="B237" t="s">
+        <v>154</v>
+      </c>
+      <c r="C237">
+        <v>2011</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>131</v>
+      </c>
+      <c r="B238" t="s">
+        <v>132</v>
+      </c>
+      <c r="C238">
+        <v>2011</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>78</v>
+      </c>
+      <c r="B239" t="s">
+        <v>159</v>
+      </c>
+      <c r="C239">
+        <v>2011</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>53</v>
+      </c>
+      <c r="B240" t="s">
+        <v>160</v>
+      </c>
+      <c r="C240">
+        <v>2011</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>61</v>
+      </c>
+      <c r="B241" t="s">
+        <v>161</v>
+      </c>
+      <c r="C241">
+        <v>2011</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>75</v>
+      </c>
+      <c r="B242" t="s">
+        <v>162</v>
+      </c>
+      <c r="C242">
+        <v>2009</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>61</v>
+      </c>
+      <c r="B243" t="s">
+        <v>163</v>
+      </c>
+      <c r="C243">
+        <v>2009</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>61</v>
+      </c>
+      <c r="B244" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244">
+        <v>2008</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>73</v>
+      </c>
+      <c r="B245" t="s">
+        <v>164</v>
+      </c>
+      <c r="C245">
+        <v>2007</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>61</v>
+      </c>
+      <c r="B246" t="s">
+        <v>165</v>
+      </c>
+      <c r="C246">
+        <v>2006</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247">
+        <v>2005</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>68</v>
+      </c>
+      <c r="B248" t="s">
+        <v>166</v>
+      </c>
+      <c r="C248">
+        <v>2005</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>68</v>
+      </c>
+      <c r="B249" t="s">
+        <v>167</v>
+      </c>
+      <c r="C249">
+        <v>1991</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" t="s">
+        <v>83</v>
+      </c>
+      <c r="C250">
         <v>1989</v>
       </c>
-      <c r="D236">
+      <c r="D250">
         <v>1</v>
       </c>
     </row>

--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somet\Documents\Engineering\PartIV\762\762-impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaru\Documents\UiPath\762-impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6167890-5C28-4793-9576-DC5A2EBADA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D275A6-E329-4561-AAD4-F34A4E2DFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2400" windowWidth="32505" windowHeight="15345" xr2:uid="{4A9C7B27-1D65-4421-A46B-644C7F91AB91}"/>
+    <workbookView xWindow="1635" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{4A75A796-F6A9-442D-AA11-4067559B62C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="159">
   <si>
     <t>Make</t>
   </si>
@@ -59,6 +57,9 @@
     <t>volvo</t>
   </si>
   <si>
+    <t>xc90</t>
+  </si>
+  <si>
     <t>xc60</t>
   </si>
   <si>
@@ -68,189 +69,189 @@
     <t>multivan</t>
   </si>
   <si>
+    <t>tesla</t>
+  </si>
+  <si>
+    <t>model-y</t>
+  </si>
+  <si>
+    <t>skoda</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>octavia</t>
+  </si>
+  <si>
+    <t>renault</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>koleos</t>
+  </si>
+  <si>
+    <t>kadjar</t>
+  </si>
+  <si>
+    <t>arkana</t>
+  </si>
+  <si>
+    <t>peugeot</t>
+  </si>
+  <si>
+    <t>triton</t>
+  </si>
+  <si>
+    <t>pajero</t>
+  </si>
+  <si>
+    <t>mirage</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>eclipse-cross</t>
+  </si>
+  <si>
+    <t>asx</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>land-rover</t>
+  </si>
+  <si>
+    <t>range-rover-velar</t>
+  </si>
+  <si>
+    <t>range-rover-evoque</t>
+  </si>
+  <si>
+    <t>range-rover</t>
+  </si>
+  <si>
+    <t>kia</t>
+  </si>
+  <si>
+    <t>sorento</t>
+  </si>
+  <si>
+    <t>niro</t>
+  </si>
+  <si>
+    <t>isuzu</t>
+  </si>
+  <si>
+    <t>mu-x</t>
+  </si>
+  <si>
+    <t>d-max</t>
+  </si>
+  <si>
+    <t>hyundai</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>santa-fe</t>
+  </si>
+  <si>
+    <t>kona</t>
+  </si>
+  <si>
+    <t>ioniq-5</t>
+  </si>
+  <si>
+    <t>ioniq</t>
+  </si>
+  <si>
+    <t>i30-n</t>
+  </si>
+  <si>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>i20</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>citroen</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>byd</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>alfa-romeo</t>
+  </si>
+  <si>
+    <t>stelvio</t>
+  </si>
+  <si>
+    <t>t-roc</t>
+  </si>
+  <si>
     <t>toyota</t>
   </si>
   <si>
-    <t>land-cruiser</t>
+    <t>yaris</t>
+  </si>
+  <si>
+    <t>rav4</t>
+  </si>
+  <si>
+    <t>prius</t>
+  </si>
+  <si>
+    <t>mercedes-benz</t>
+  </si>
+  <si>
+    <t>e-300</t>
+  </si>
+  <si>
+    <t>staria</t>
+  </si>
+  <si>
+    <t>supra</t>
+  </si>
+  <si>
+    <t>raize</t>
   </si>
   <si>
     <t>hilux</t>
   </si>
   <si>
-    <t>tesla</t>
-  </si>
-  <si>
-    <t>model-y</t>
-  </si>
-  <si>
-    <t>skoda</t>
-  </si>
-  <si>
-    <t>superb</t>
-  </si>
-  <si>
-    <t>octavia</t>
-  </si>
-  <si>
-    <t>renault</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>koleos</t>
-  </si>
-  <si>
-    <t>kadjar</t>
-  </si>
-  <si>
-    <t>arkana</t>
-  </si>
-  <si>
-    <t>peugeot</t>
-  </si>
-  <si>
-    <t>listing</t>
-  </si>
-  <si>
-    <t>triton</t>
-  </si>
-  <si>
-    <t>pajero</t>
-  </si>
-  <si>
-    <t>mirage</t>
-  </si>
-  <si>
-    <t>express</t>
-  </si>
-  <si>
-    <t>eclipse-cross</t>
-  </si>
-  <si>
-    <t>asx</t>
-  </si>
-  <si>
-    <t>mg</t>
-  </si>
-  <si>
-    <t>hs</t>
-  </si>
-  <si>
-    <t>land-rover</t>
-  </si>
-  <si>
-    <t>range-rover-velar</t>
-  </si>
-  <si>
-    <t>range-rover-evoque</t>
-  </si>
-  <si>
-    <t>range-rover</t>
-  </si>
-  <si>
-    <t>kia</t>
-  </si>
-  <si>
-    <t>sorento</t>
-  </si>
-  <si>
-    <t>niro</t>
-  </si>
-  <si>
-    <t>isuzu</t>
-  </si>
-  <si>
-    <t>mu-x</t>
-  </si>
-  <si>
-    <t>d-max</t>
-  </si>
-  <si>
-    <t>hyundai</t>
-  </si>
-  <si>
-    <t>venue</t>
-  </si>
-  <si>
-    <t>santa-fe</t>
-  </si>
-  <si>
-    <t>kona</t>
-  </si>
-  <si>
-    <t>ioniq-5</t>
-  </si>
-  <si>
-    <t>ioniq</t>
-  </si>
-  <si>
-    <t>i30-n</t>
-  </si>
-  <si>
-    <t>i30</t>
-  </si>
-  <si>
-    <t>i20</t>
-  </si>
-  <si>
-    <t>ford</t>
-  </si>
-  <si>
-    <t>transit</t>
-  </si>
-  <si>
-    <t>puma</t>
-  </si>
-  <si>
-    <t>escape</t>
-  </si>
-  <si>
-    <t>citroen</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>byd</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>bmw</t>
-  </si>
-  <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>alfa-romeo</t>
-  </si>
-  <si>
-    <t>stelvio</t>
-  </si>
-  <si>
-    <t>t-roc</t>
-  </si>
-  <si>
-    <t>yaris</t>
-  </si>
-  <si>
-    <t>prius</t>
-  </si>
-  <si>
-    <t>mercedes-benz</t>
-  </si>
-  <si>
-    <t>e-300</t>
-  </si>
-  <si>
-    <t>staria</t>
-  </si>
-  <si>
-    <t>supra</t>
-  </si>
-  <si>
     <t>suzuki</t>
   </si>
   <si>
@@ -266,238 +267,232 @@
     <t>juke</t>
   </si>
   <si>
+    <t>530e</t>
+  </si>
+  <si>
+    <t>v60</t>
+  </si>
+  <si>
+    <t>fortuner</t>
+  </si>
+  <si>
+    <t>corolla</t>
+  </si>
+  <si>
+    <t>camry</t>
+  </si>
+  <si>
+    <t>porsche</t>
+  </si>
+  <si>
+    <t>panamera</t>
+  </si>
+  <si>
+    <t>cayenne</t>
+  </si>
+  <si>
+    <t>nv350</t>
+  </si>
+  <si>
+    <t>mazda</t>
+  </si>
+  <si>
+    <t>cx-30</t>
+  </si>
+  <si>
+    <t>range-rover-sport</t>
+  </si>
+  <si>
+    <t>tucson</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>740e</t>
+  </si>
+  <si>
+    <t>golf</t>
+  </si>
+  <si>
+    <t>highlander</t>
+  </si>
+  <si>
+    <t>hiace</t>
+  </si>
+  <si>
+    <t>c-hr</t>
+  </si>
+  <si>
+    <t>aqua</t>
+  </si>
+  <si>
+    <t>mini</t>
+  </si>
+  <si>
+    <t>countryman</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>e-350</t>
+  </si>
+  <si>
+    <t>tiguan</t>
+  </si>
+  <si>
+    <t>vitz</t>
+  </si>
+  <si>
+    <t>subaru</t>
+  </si>
+  <si>
+    <t>xv</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>c-350-e</t>
+  </si>
+  <si>
+    <t>territory</t>
+  </si>
+  <si>
+    <t>330e</t>
+  </si>
+  <si>
+    <t>225xe</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>passat</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>jetta</t>
+  </si>
+  <si>
+    <t>macan</t>
+  </si>
+  <si>
+    <t>e-nv200</t>
+  </si>
+  <si>
+    <t>s-400</t>
+  </si>
+  <si>
+    <t>c-250</t>
+  </si>
+  <si>
+    <t>c-220</t>
+  </si>
+  <si>
+    <t>lexus</t>
+  </si>
+  <si>
+    <t>rc-300</t>
+  </si>
+  <si>
+    <t>jaguar</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>holden</t>
+  </si>
+  <si>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>m235i</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>harrier</t>
+  </si>
+  <si>
+    <t>cx-9</t>
+  </si>
+  <si>
+    <t>nx-300h</t>
+  </si>
+  <si>
     <t>honda</t>
   </si>
   <si>
-    <t>hr-v</t>
-  </si>
-  <si>
-    <t>530e</t>
-  </si>
-  <si>
-    <t>v60</t>
-  </si>
-  <si>
-    <t>rav4</t>
-  </si>
-  <si>
-    <t>fortuner</t>
-  </si>
-  <si>
-    <t>corolla</t>
-  </si>
-  <si>
-    <t>camry</t>
-  </si>
-  <si>
-    <t>porsche</t>
-  </si>
-  <si>
-    <t>panamera</t>
-  </si>
-  <si>
-    <t>cayenne</t>
-  </si>
-  <si>
-    <t>nv350</t>
-  </si>
-  <si>
-    <t>mazda</t>
-  </si>
-  <si>
-    <t>cx-30</t>
-  </si>
-  <si>
-    <t>range-rover-sport</t>
-  </si>
-  <si>
-    <t>seltos</t>
-  </si>
-  <si>
-    <t>tucson</t>
-  </si>
-  <si>
-    <t>accent</t>
-  </si>
-  <si>
-    <t>740e</t>
-  </si>
-  <si>
-    <t>golf</t>
-  </si>
-  <si>
-    <t>highlander</t>
-  </si>
-  <si>
-    <t>hiace</t>
-  </si>
-  <si>
-    <t>c-hr</t>
-  </si>
-  <si>
-    <t>aqua</t>
-  </si>
-  <si>
-    <t>mini</t>
-  </si>
-  <si>
-    <t>countryman</t>
-  </si>
-  <si>
-    <t>cooper</t>
-  </si>
-  <si>
-    <t>e-350</t>
-  </si>
-  <si>
-    <t>tiguan</t>
-  </si>
-  <si>
-    <t>vitz</t>
-  </si>
-  <si>
-    <t>subaru</t>
-  </si>
-  <si>
-    <t>xv</t>
-  </si>
-  <si>
-    <t>c-350-e</t>
-  </si>
-  <si>
-    <t>holden</t>
-  </si>
-  <si>
-    <t>astra</t>
-  </si>
-  <si>
-    <t>territory</t>
-  </si>
-  <si>
-    <t>330e</t>
-  </si>
-  <si>
-    <t>225xe</t>
-  </si>
-  <si>
-    <t>passat</t>
-  </si>
-  <si>
-    <t>land-cruiser-prado</t>
-  </si>
-  <si>
-    <t>audi</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>jetta</t>
-  </si>
-  <si>
-    <t>outback</t>
-  </si>
-  <si>
-    <t>macan</t>
-  </si>
-  <si>
-    <t>e-nv200</t>
-  </si>
-  <si>
-    <t>s-400</t>
-  </si>
-  <si>
-    <t>c-250</t>
-  </si>
-  <si>
-    <t>c-220</t>
-  </si>
-  <si>
-    <t>lexus</t>
-  </si>
-  <si>
-    <t>rc-300</t>
-  </si>
-  <si>
-    <t>nx-300h</t>
-  </si>
-  <si>
-    <t>jaguar</t>
-  </si>
-  <si>
-    <t>xf</t>
-  </si>
-  <si>
-    <t>grace</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
-    <t>i8</t>
-  </si>
-  <si>
-    <t>435i</t>
-  </si>
-  <si>
-    <t>harrier</t>
-  </si>
-  <si>
-    <t>cx-9</t>
-  </si>
-  <si>
     <t>vezel</t>
   </si>
   <si>
+    <t>sq5</t>
+  </si>
+  <si>
+    <t>navara</t>
+  </si>
+  <si>
+    <t>rvr</t>
+  </si>
+  <si>
+    <t>cla-45</t>
+  </si>
+  <si>
+    <t>a-180</t>
+  </si>
+  <si>
+    <t>cx-5</t>
+  </si>
+  <si>
+    <t>commodore</t>
+  </si>
+  <si>
+    <t>lancer</t>
+  </si>
+  <si>
+    <t>r-350</t>
+  </si>
+  <si>
+    <t>ml-350</t>
+  </si>
+  <si>
+    <t>c-180</t>
+  </si>
+  <si>
+    <t>rx-450h</t>
+  </si>
+  <si>
+    <t>ls-600</t>
+  </si>
+  <si>
+    <t>gs-250</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
     <t>116i</t>
   </si>
   <si>
-    <t>sq5</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>rvr</t>
-  </si>
-  <si>
-    <t>cla-45</t>
-  </si>
-  <si>
-    <t>cx-5</t>
-  </si>
-  <si>
-    <t>commodore</t>
-  </si>
-  <si>
-    <t>lancer</t>
-  </si>
-  <si>
-    <t>ml-350</t>
-  </si>
-  <si>
-    <t>rx-450h</t>
-  </si>
-  <si>
-    <t>ls-600</t>
-  </si>
-  <si>
-    <t>gs-250</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>328i</t>
-  </si>
-  <si>
-    <t>polo</t>
-  </si>
-  <si>
     <t>fit</t>
   </si>
   <si>
     <t>kuga</t>
+  </si>
+  <si>
+    <t>523i</t>
   </si>
   <si>
     <t>x-trail</t>
@@ -866,8 +861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9075A47D-84DE-4F8C-8476-FA06FE2480B8}">
-  <dimension ref="A1:D236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C06B43-F583-4687-B11F-98B0E0DF934B}">
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,40 +907,40 @@
         <v>2022</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>2022</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -968,15 +963,15 @@
         <v>2022</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -987,7 +982,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1001,24 +996,24 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10">
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1029,10 +1024,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1043,44 +1038,44 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3008</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>3008</v>
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14">
         <v>2022</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,13 +1083,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,13 +1097,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,13 +1111,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>2022</v>
       </c>
       <c r="D18">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,13 +1125,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,18 +1139,18 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>2022</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1164,26 +1159,26 @@
         <v>2022</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -1192,15 +1187,15 @@
         <v>2022</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1211,7 +1206,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -1220,12 +1215,12 @@
         <v>2022</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -1234,7 +1229,7 @@
         <v>2022</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1243,7 @@
         <v>2022</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1257,7 @@
         <v>2022</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1271,7 @@
         <v>2022</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,57 +1285,57 @@
         <v>2022</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
       </c>
       <c r="C31">
         <v>2022</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>2022</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>2022</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -1351,24 +1346,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>2022</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -1379,7 +1374,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -1388,12 +1383,12 @@
         <v>2022</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
@@ -1402,88 +1397,88 @@
         <v>2022</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>2022</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>2022</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>2022</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>2022</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>2022</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C44">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1491,30 +1486,30 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C45">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,21 +1517,21 @@
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -1547,10 +1542,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>508</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -1561,10 +1556,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -1575,38 +1570,38 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>2021</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C52">
         <v>2021</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -1617,66 +1612,66 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54">
-        <v>508</v>
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C57">
         <v>2021</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -1687,41 +1682,41 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C60">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1729,27 +1724,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C62">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C63">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1757,13 +1752,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1771,24 +1766,24 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C65">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>2020</v>
@@ -1799,38 +1794,38 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>2020</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C68">
         <v>2020</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>2020</v>
@@ -1841,24 +1836,24 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
       </c>
       <c r="C70">
         <v>2020</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C71">
         <v>2020</v>
@@ -1869,41 +1864,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C72">
         <v>2020</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C73">
         <v>2020</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C74">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -1911,27 +1906,27 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
       </c>
       <c r="C75">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C76">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1939,52 +1934,52 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C77">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C78">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C79">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C80">
         <v>2019</v>
@@ -1995,38 +1990,38 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>2019</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>2019</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>2019</v>
@@ -2037,24 +2032,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C84">
         <v>2019</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C85">
         <v>2019</v>
@@ -2065,10 +2060,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C86">
         <v>2019</v>
@@ -2079,10 +2074,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>2019</v>
@@ -2093,24 +2088,24 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" t="s">
         <v>86</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
       </c>
       <c r="C88">
         <v>2019</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89">
         <v>2019</v>
@@ -2121,10 +2116,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C90">
         <v>2019</v>
@@ -2135,38 +2130,38 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>2019</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C92">
         <v>2019</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>2019</v>
@@ -2177,10 +2172,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>2019</v>
@@ -2191,83 +2186,83 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
       </c>
       <c r="C95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C96">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C97">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C98">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C99">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C100">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -2275,13 +2270,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C101">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2289,24 +2284,24 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C102">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C103">
         <v>2018</v>
@@ -2317,38 +2312,38 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C104">
         <v>2018</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>2018</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C106">
         <v>2018</v>
@@ -2359,24 +2354,24 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="C107">
         <v>2018</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C108">
         <v>2018</v>
@@ -2387,10 +2382,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C109">
         <v>2018</v>
@@ -2401,24 +2396,24 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C110">
         <v>2018</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C111">
         <v>2018</v>
@@ -2429,10 +2424,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C112">
         <v>2018</v>
@@ -2443,10 +2438,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C113">
         <v>2018</v>
@@ -2457,97 +2452,97 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C114">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C115">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D115">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C116">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C117">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C118">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C119">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -2555,27 +2550,27 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C121">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C122">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2583,13 +2578,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C123">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2597,24 +2592,24 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C124">
         <v>2017</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C125">
         <v>2017</v>
@@ -2625,94 +2620,94 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>2017</v>
       </c>
       <c r="D126">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C127">
         <v>2017</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C128">
         <v>2017</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C129">
         <v>2017</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C130">
         <v>2017</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C131">
         <v>2017</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>73</v>
-      </c>
-      <c r="B132" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
       </c>
       <c r="C132">
         <v>2017</v>
@@ -2723,10 +2718,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C133">
         <v>2017</v>
@@ -2737,97 +2732,97 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="C134">
         <v>2017</v>
       </c>
       <c r="D134">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C135">
         <v>2017</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C136">
         <v>2017</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C137">
         <v>2017</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C138">
         <v>2017</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C139">
         <v>2017</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>88</v>
-      </c>
-      <c r="B140">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>110</v>
       </c>
       <c r="C140">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -2835,13 +2830,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C141">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -2849,27 +2844,27 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C142">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B143" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C143">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -2877,13 +2872,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C144">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -2891,13 +2886,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C145">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -2905,52 +2900,52 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="C146">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B147" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C147">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C148">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B149" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C149">
         <v>2016</v>
@@ -2961,69 +2956,69 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B150" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C150">
         <v>2016</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C151">
         <v>2016</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C152">
         <v>2016</v>
       </c>
       <c r="D152">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C153">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
         <v>92</v>
       </c>
       <c r="C154">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -3031,55 +3026,55 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B155" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C155">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C156">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B157" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C157">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D157">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" t="s">
         <v>116</v>
       </c>
-      <c r="B158" t="s">
-        <v>117</v>
-      </c>
       <c r="C158">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -3087,38 +3082,38 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="C159">
         <v>2015</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B160" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C160">
         <v>2015</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B161" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C161">
         <v>2015</v>
@@ -3129,10 +3124,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C162">
         <v>2015</v>
@@ -3143,10 +3138,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B163" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C163">
         <v>2015</v>
@@ -3157,10 +3152,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C164">
         <v>2015</v>
@@ -3171,10 +3166,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B165" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C165">
         <v>2015</v>
@@ -3185,24 +3180,24 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C166">
         <v>2015</v>
       </c>
       <c r="D166">
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B167" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -3213,10 +3208,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C168">
         <v>2015</v>
@@ -3227,10 +3222,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C169">
         <v>2015</v>
@@ -3241,10 +3236,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C170">
         <v>2015</v>
@@ -3255,27 +3250,27 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B171" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C171">
         <v>2015</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C172">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -3283,27 +3278,27 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B173" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="C173">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C174">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -3311,27 +3306,27 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C175">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C176">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -3339,13 +3334,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B177" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C177">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -3353,27 +3348,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B178" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C178">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="B179" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C179">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -3381,27 +3376,27 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B180" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C180">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C181">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -3409,27 +3404,27 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C182">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B183" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C183">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -3437,41 +3432,41 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C184">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D184">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B185" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="C185">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B186" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C186">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3479,27 +3474,27 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B187" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C187">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="C188">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3507,27 +3502,27 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B190" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C190">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -3535,38 +3530,38 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B191" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B192" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C192">
         <v>2013</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B193" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C193">
         <v>2013</v>
@@ -3577,38 +3572,38 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C194">
         <v>2013</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="B195" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C195">
         <v>2013</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="C196">
         <v>2013</v>
@@ -3619,41 +3614,41 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B197" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="C197">
         <v>2013</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D198">
-        <v>164</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="C199">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -3661,27 +3656,27 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B200" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C200">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B201" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C201">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -3689,13 +3684,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C202">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D202">
         <v>2</v>
@@ -3703,13 +3698,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C203">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3717,13 +3712,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B204" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="C204">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -3731,13 +3726,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B205" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C205">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -3745,10 +3740,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="C206">
         <v>2012</v>
@@ -3759,66 +3754,66 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B207" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="C207">
         <v>2012</v>
       </c>
       <c r="D207">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B208" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C208">
         <v>2012</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="C209">
         <v>2012</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C210">
         <v>2012</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="B211" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C211">
         <v>2012</v>
@@ -3829,10 +3824,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B212" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="C212">
         <v>2012</v>
@@ -3843,24 +3838,24 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="B213" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="C213">
         <v>2012</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="B214" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C214">
         <v>2012</v>
@@ -3871,27 +3866,27 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="B215" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C215">
         <v>2012</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="C216">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -3899,13 +3894,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C217">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -3913,13 +3908,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B218" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="C218">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -3927,13 +3922,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B219" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="C219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -3941,13 +3936,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="B220" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C220">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -3955,13 +3950,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B221" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C221">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -3969,10 +3964,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B222" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="C222">
         <v>2011</v>
@@ -3983,13 +3978,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B223" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C223">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -3997,13 +3992,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="B224" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C224">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -4011,13 +4006,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="B225" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C225">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -4025,13 +4020,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B226" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C226">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -4039,13 +4034,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B227" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C227">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -4053,13 +4048,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B228" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C228">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4067,13 +4062,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B229" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C229">
-        <v>2009</v>
+        <v>1991</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4081,99 +4076,15 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B230" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="C230">
-        <v>2007</v>
+        <v>1989</v>
       </c>
       <c r="D230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>156</v>
-      </c>
-      <c r="B231" t="s">
-        <v>24</v>
-      </c>
-      <c r="C231">
-        <v>2007</v>
-      </c>
-      <c r="D231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>60</v>
-      </c>
-      <c r="B232" t="s">
-        <v>157</v>
-      </c>
-      <c r="C232">
-        <v>2006</v>
-      </c>
-      <c r="D232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>10</v>
-      </c>
-      <c r="B233" t="s">
-        <v>11</v>
-      </c>
-      <c r="C233">
-        <v>2005</v>
-      </c>
-      <c r="D233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>67</v>
-      </c>
-      <c r="B234" t="s">
-        <v>158</v>
-      </c>
-      <c r="C234">
-        <v>2005</v>
-      </c>
-      <c r="D234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>67</v>
-      </c>
-      <c r="B235" t="s">
-        <v>159</v>
-      </c>
-      <c r="C235">
-        <v>1991</v>
-      </c>
-      <c r="D235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>10</v>
-      </c>
-      <c r="B236" t="s">
-        <v>82</v>
-      </c>
-      <c r="C236">
-        <v>1989</v>
-      </c>
-      <c r="D236">
         <v>1</v>
       </c>
     </row>

--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaru\Documents\UiPath\762-impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somet\Documents\Engineering\PartIV\762-impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D275A6-E329-4561-AAD4-F34A4E2DFF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D183E879-E623-4D1C-A3A1-39A0DF03F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{4A75A796-F6A9-442D-AA11-4067559B62C0}"/>
+    <workbookView xWindow="17685" yWindow="4515" windowWidth="32505" windowHeight="15345" xr2:uid="{9F670307-BB0C-410C-A732-BF2E1B69CA96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="167">
   <si>
     <t>Make</t>
   </si>
@@ -69,6 +71,18 @@
     <t>multivan</t>
   </si>
   <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>prius</t>
+  </si>
+  <si>
+    <t>land-cruiser</t>
+  </si>
+  <si>
+    <t>hilux</t>
+  </si>
+  <si>
     <t>tesla</t>
   </si>
   <si>
@@ -222,18 +236,12 @@
     <t>t-roc</t>
   </si>
   <si>
-    <t>toyota</t>
-  </si>
-  <si>
     <t>yaris</t>
   </si>
   <si>
     <t>rav4</t>
   </si>
   <si>
-    <t>prius</t>
-  </si>
-  <si>
     <t>mercedes-benz</t>
   </si>
   <si>
@@ -249,9 +257,6 @@
     <t>raize</t>
   </si>
   <si>
-    <t>hilux</t>
-  </si>
-  <si>
     <t>suzuki</t>
   </si>
   <si>
@@ -267,6 +272,12 @@
     <t>juke</t>
   </si>
   <si>
+    <t>honda</t>
+  </si>
+  <si>
+    <t>hr-v</t>
+  </si>
+  <si>
     <t>530e</t>
   </si>
   <si>
@@ -303,6 +314,9 @@
     <t>range-rover-sport</t>
   </si>
   <si>
+    <t>seltos</t>
+  </si>
+  <si>
     <t>tucson</t>
   </si>
   <si>
@@ -357,6 +371,12 @@
     <t>c-350-e</t>
   </si>
   <si>
+    <t>holden</t>
+  </si>
+  <si>
+    <t>astra</t>
+  </si>
+  <si>
     <t>territory</t>
   </si>
   <si>
@@ -372,6 +392,9 @@
     <t>passat</t>
   </si>
   <si>
+    <t>land-cruiser-prado</t>
+  </si>
+  <si>
     <t>audi</t>
   </si>
   <si>
@@ -381,6 +404,9 @@
     <t>jetta</t>
   </si>
   <si>
+    <t>outback</t>
+  </si>
+  <si>
     <t>macan</t>
   </si>
   <si>
@@ -402,13 +428,16 @@
     <t>rc-300</t>
   </si>
   <si>
+    <t>nx-300h</t>
+  </si>
+  <si>
     <t>jaguar</t>
   </si>
   <si>
     <t>xf</t>
   </si>
   <si>
-    <t>holden</t>
+    <t>grace</t>
   </si>
   <si>
     <t>colorado</t>
@@ -420,24 +449,21 @@
     <t>i8</t>
   </si>
   <si>
+    <t>435i</t>
+  </si>
+  <si>
     <t>a4</t>
   </si>
   <si>
-    <t>harrier</t>
-  </si>
-  <si>
     <t>cx-9</t>
   </si>
   <si>
-    <t>nx-300h</t>
-  </si>
-  <si>
-    <t>honda</t>
-  </si>
-  <si>
     <t>vezel</t>
   </si>
   <si>
+    <t>116i</t>
+  </si>
+  <si>
     <t>sq5</t>
   </si>
   <si>
@@ -483,7 +509,7 @@
     <t>x3</t>
   </si>
   <si>
-    <t>116i</t>
+    <t>328i</t>
   </si>
   <si>
     <t>fit</t>
@@ -861,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C06B43-F583-4687-B11F-98B0E0DF934B}">
-  <dimension ref="A1:D230"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2F4298-1953-427F-A2F4-DB0B52842867}">
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -935,7 +961,7 @@
         <v>2022</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,24 +980,24 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -982,21 +1008,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1005,12 +1031,12 @@
         <v>2022</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1019,77 +1045,77 @@
         <v>2022</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>2022</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>3008</v>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>2022</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>3008</v>
       </c>
       <c r="C16">
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1111,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>2022</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1125,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,18 +1165,18 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>2022</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1159,40 +1185,40 @@
         <v>2022</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>2022</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -1201,7 +1227,7 @@
         <v>2022</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,7 +1241,7 @@
         <v>2022</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,26 +1255,26 @@
         <v>2022</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
       </c>
       <c r="C27">
         <v>2022</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -1257,26 +1283,26 @@
         <v>2022</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
         <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
       </c>
       <c r="C29">
         <v>2022</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -1290,7 +1316,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -1299,15 +1325,15 @@
         <v>2022</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1318,38 +1344,38 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>2022</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2022</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -1360,21 +1386,21 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>2022</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -1383,12 +1409,12 @@
         <v>2022</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>51</v>
@@ -1397,12 +1423,12 @@
         <v>2022</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
@@ -1425,43 +1451,43 @@
         <v>2022</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
         <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
       </c>
       <c r="C41">
         <v>2022</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2022</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>2022</v>
@@ -1472,41 +1498,41 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
       <c r="C45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
       </c>
       <c r="C46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1514,7 +1540,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -1523,15 +1549,15 @@
         <v>2021</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -1542,10 +1568,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49">
-        <v>508</v>
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -1556,52 +1582,52 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>2021</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>2021</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>2021</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>508</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -1612,52 +1638,52 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -1668,41 +1694,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C58">
         <v>2021</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C60">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1710,13 +1736,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C61">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1724,27 +1750,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C62">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1752,10 +1778,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C64">
         <v>2020</v>
@@ -1766,80 +1792,80 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C65">
         <v>2020</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C66">
         <v>2020</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C67">
         <v>2020</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C68">
         <v>2020</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>2020</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
       </c>
       <c r="C70">
         <v>2020</v>
@@ -1850,24 +1876,24 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>2020</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C72">
         <v>2020</v>
@@ -1878,55 +1904,55 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C73">
         <v>2020</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C75">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C76">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1934,66 +1960,66 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C77">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>2019</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C80">
         <v>2019</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C81">
         <v>2019</v>
@@ -2004,24 +2030,24 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>2019</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>2019</v>
@@ -2032,24 +2058,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <v>2019</v>
       </c>
       <c r="D84">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>2019</v>
@@ -2060,10 +2086,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>2019</v>
@@ -2074,7 +2100,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
@@ -2088,24 +2114,24 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
       </c>
       <c r="C88">
         <v>2019</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C89">
         <v>2019</v>
@@ -2116,24 +2142,24 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C90">
         <v>2019</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C91">
         <v>2019</v>
@@ -2144,21 +2170,21 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C92">
         <v>2019</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
         <v>90</v>
@@ -2172,27 +2198,27 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
-      </c>
-      <c r="B94" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
       </c>
       <c r="C94">
         <v>2019</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -2200,83 +2226,83 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C96">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C97">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
         <v>93</v>
       </c>
       <c r="C98">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C99">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C100">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
         <v>95</v>
       </c>
       <c r="C101">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2284,7 +2310,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
         <v>96</v>
@@ -2293,15 +2319,15 @@
         <v>2018</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C103">
         <v>2018</v>
@@ -2312,10 +2338,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>2018</v>
@@ -2326,24 +2352,24 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>2018</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C106">
         <v>2018</v>
@@ -2354,21 +2380,21 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
         <v>97</v>
-      </c>
-      <c r="B107" t="s">
-        <v>56</v>
       </c>
       <c r="C107">
         <v>2018</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
         <v>98</v>
@@ -2382,10 +2408,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C109">
         <v>2018</v>
@@ -2396,24 +2422,24 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C110">
         <v>2018</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C111">
         <v>2018</v>
@@ -2424,24 +2450,24 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C112">
         <v>2018</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C113">
         <v>2018</v>
@@ -2452,97 +2478,97 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C114">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C116">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C117">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C118">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C119">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
         <v>104</v>
       </c>
       <c r="C120">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -2550,27 +2576,27 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C121">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C122">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2578,13 +2604,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C123">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2592,7 +2618,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
         <v>105</v>
@@ -2601,15 +2627,15 @@
         <v>2017</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C125">
         <v>2017</v>
@@ -2620,122 +2646,122 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C126">
         <v>2017</v>
       </c>
       <c r="D126">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>2017</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C128">
         <v>2017</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C129">
         <v>2017</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C130">
         <v>2017</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C131">
         <v>2017</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" t="s">
         <v>86</v>
-      </c>
-      <c r="B132">
-        <v>6</v>
       </c>
       <c r="C132">
         <v>2017</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C133">
         <v>2017</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C134">
         <v>2017</v>
@@ -2746,10 +2772,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B135" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C135">
         <v>2017</v>
@@ -2760,240 +2786,240 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="C136">
         <v>2017</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C137">
         <v>2017</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B138" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C138">
         <v>2017</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C139">
         <v>2017</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B140" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C140">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C141">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C143">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="B144" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C144">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C145">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C146">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D146">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C147">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C148">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C149">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B150" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C150">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C151">
         <v>2016</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C152">
         <v>2016</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,38 +3027,38 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C153">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C154">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C155">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -3040,13 +3066,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="C156">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -3054,13 +3080,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C157">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3068,97 +3094,97 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="C158">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C159">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D159">
-        <v>119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C160">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C161">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B162" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C162">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B163" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C163">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B164" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C164">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -3166,10 +3192,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C165">
         <v>2015</v>
@@ -3180,24 +3206,24 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C166">
         <v>2015</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -3208,10 +3234,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C168">
         <v>2015</v>
@@ -3222,10 +3248,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C169">
         <v>2015</v>
@@ -3236,10 +3262,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B170" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C170">
         <v>2015</v>
@@ -3250,55 +3276,55 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B171" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C171">
         <v>2015</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B173" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C173">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B174" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C174">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -3306,27 +3332,27 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C175">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D175">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B176" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C176">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -3334,13 +3360,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C177">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -3348,27 +3374,27 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>131</v>
+      </c>
+      <c r="B178" t="s">
         <v>132</v>
       </c>
-      <c r="B178" t="s">
-        <v>133</v>
-      </c>
       <c r="C178">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D178">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="B179" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C179">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -3376,13 +3402,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="B180" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C180">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -3390,13 +3416,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B181" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C181">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -3404,13 +3430,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B182" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C182">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -3418,13 +3444,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B183" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C183">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -3432,41 +3458,41 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B184" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="C184">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C185">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C186">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -3474,27 +3500,27 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B187" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C187">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C188">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -3502,41 +3528,41 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C189">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D189">
-        <v>168</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="C190">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B191" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C191">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -3544,27 +3570,27 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B192" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C192">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C193">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -3572,13 +3598,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C194">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -3586,13 +3612,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C195">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -3600,10 +3626,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C196">
         <v>2013</v>
@@ -3614,69 +3640,69 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C197">
         <v>2013</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C198">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C199">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C200">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B201" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C201">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -3684,16 +3710,16 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B202" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="C202">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3701,10 +3727,10 @@
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C203">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -3712,27 +3738,27 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="C204">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B205" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C205">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -3740,13 +3766,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B206" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C206">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -3754,27 +3780,27 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B207" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C207">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B208" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C208">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -3782,41 +3808,41 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B209" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C209">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C210">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B211" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C211">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -3824,27 +3850,27 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B212" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C212">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B213" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="C213">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -3852,24 +3878,24 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="C214">
         <v>2012</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="C215">
         <v>2012</v>
@@ -3880,55 +3906,55 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C216">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C217">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="C218">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C219">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -3936,13 +3962,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B220" t="s">
         <v>150</v>
       </c>
       <c r="C220">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -3950,13 +3976,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B221" t="s">
         <v>151</v>
       </c>
       <c r="C221">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -3964,13 +3990,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B222" t="s">
         <v>152</v>
       </c>
       <c r="C222">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -3978,27 +4004,27 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B223" t="s">
         <v>153</v>
       </c>
       <c r="C223">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B224" t="s">
         <v>154</v>
       </c>
       <c r="C224">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -4006,27 +4032,27 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B225" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="C225">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B226" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="C226">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -4034,13 +4060,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B227" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C227">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -4048,13 +4074,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B228" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="C228">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -4062,13 +4088,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B229" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="C229">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4076,15 +4102,281 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>61</v>
+      </c>
+      <c r="B230" t="s">
+        <v>156</v>
+      </c>
+      <c r="C230">
+        <v>2012</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>61</v>
+      </c>
+      <c r="B231" t="s">
+        <v>157</v>
+      </c>
+      <c r="C231">
+        <v>2012</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>61</v>
+      </c>
+      <c r="B232" t="s">
+        <v>141</v>
+      </c>
+      <c r="C232">
+        <v>2012</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
+        <v>105</v>
+      </c>
+      <c r="C233">
+        <v>2011</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>116</v>
+      </c>
+      <c r="C234">
+        <v>2011</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>128</v>
+      </c>
+      <c r="B235" t="s">
+        <v>153</v>
+      </c>
+      <c r="C235">
+        <v>2011</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>131</v>
+      </c>
+      <c r="B236" t="s">
+        <v>132</v>
+      </c>
+      <c r="C236">
+        <v>2011</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>78</v>
+      </c>
+      <c r="B237" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237">
+        <v>2011</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>53</v>
+      </c>
+      <c r="B238" t="s">
+        <v>159</v>
+      </c>
+      <c r="C238">
+        <v>2011</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>61</v>
+      </c>
+      <c r="B239" t="s">
+        <v>160</v>
+      </c>
+      <c r="C239">
+        <v>2011</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>128</v>
+      </c>
+      <c r="B240" t="s">
+        <v>153</v>
+      </c>
+      <c r="C240">
+        <v>2010</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>75</v>
+      </c>
+      <c r="B241" t="s">
+        <v>161</v>
+      </c>
+      <c r="C241">
+        <v>2009</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>61</v>
+      </c>
+      <c r="B242" t="s">
+        <v>162</v>
+      </c>
+      <c r="C242">
+        <v>2009</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>61</v>
+      </c>
+      <c r="B243" t="s">
         <v>62</v>
       </c>
-      <c r="B230" t="s">
-        <v>80</v>
-      </c>
-      <c r="C230">
+      <c r="C243">
+        <v>2008</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>73</v>
+      </c>
+      <c r="B244" t="s">
+        <v>163</v>
+      </c>
+      <c r="C244">
+        <v>2007</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>61</v>
+      </c>
+      <c r="B245" t="s">
+        <v>164</v>
+      </c>
+      <c r="C245">
+        <v>2006</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246">
+        <v>2005</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>68</v>
+      </c>
+      <c r="B247" t="s">
+        <v>165</v>
+      </c>
+      <c r="C247">
+        <v>2005</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>68</v>
+      </c>
+      <c r="B248" t="s">
+        <v>166</v>
+      </c>
+      <c r="C248">
+        <v>1991</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249">
         <v>1989</v>
       </c>
-      <c r="D230">
+      <c r="D249">
         <v>1</v>
       </c>
     </row>

--- a/reportData.xlsx
+++ b/reportData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somet\Documents\Engineering\PartIV\762-impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\762-impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D183E879-E623-4D1C-A3A1-39A0DF03F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD242F-A479-486C-B1FA-BB93C7888064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17685" yWindow="4515" windowWidth="32505" windowHeight="15345" xr2:uid="{9F670307-BB0C-410C-A732-BF2E1B69CA96}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12645" xr2:uid="{F4AC49F4-BBE0-4A8D-9EBA-1455D555BCD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="167">
   <si>
     <t>Make</t>
   </si>
@@ -543,12 +543,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -570,13 +578,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,7 +604,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -887,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2F4298-1953-427F-A2F4-DB0B52842867}">
-  <dimension ref="A1:D249"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B83B8-4ECE-4B4C-BCF9-6472CB60EB2B}">
+  <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -922,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -936,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -950,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -964,7 +976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -978,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -992,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1115,10 +1127,10 @@
         <v>2022</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1157,10 +1169,10 @@
         <v>2022</v>
       </c>
       <c r="D19">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1199,10 +1211,10 @@
         <v>2022</v>
       </c>
       <c r="D22">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1227,10 +1239,10 @@
         <v>2022</v>
       </c>
       <c r="D24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1283,10 +1295,10 @@
         <v>2022</v>
       </c>
       <c r="D28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -1538,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1608,12 +1620,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>508</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -1622,82 +1634,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53">
-        <v>508</v>
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
       </c>
       <c r="C53">
         <v>2021</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C57">
         <v>2021</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -1706,26 +1718,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>2021</v>
       </c>
       <c r="D59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C60">
         <v>2021</v>
@@ -1734,12 +1746,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -1748,40 +1760,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>2021</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C63">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>2020</v>
@@ -1790,40 +1802,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C65">
         <v>2020</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>2020</v>
       </c>
       <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>2020</v>
@@ -1832,68 +1844,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>2020</v>
       </c>
       <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C69">
         <v>2020</v>
       </c>
       <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>2020</v>
       </c>
       <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C71">
         <v>2020</v>
       </c>
       <c r="D71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>2020</v>
@@ -1902,26 +1914,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
       </c>
       <c r="C73">
         <v>2020</v>
       </c>
       <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
       </c>
       <c r="C74">
         <v>2020</v>
@@ -1930,26 +1942,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C75">
         <v>2020</v>
       </c>
       <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>2020</v>
@@ -1958,12 +1970,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>2020</v>
@@ -1972,110 +1984,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C79">
         <v>2019</v>
       </c>
       <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C80">
         <v>2019</v>
       </c>
       <c r="D80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>2019</v>
       </c>
       <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>2019</v>
       </c>
       <c r="D82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>2019</v>
       </c>
       <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>2019</v>
       </c>
       <c r="D84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C85">
         <v>2019</v>
@@ -2084,12 +2096,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86">
         <v>2019</v>
@@ -2098,12 +2110,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87">
         <v>2019</v>
@@ -2112,12 +2124,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C88">
         <v>2019</v>
@@ -2126,40 +2138,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C89">
         <v>2019</v>
       </c>
       <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C90">
         <v>2019</v>
       </c>
       <c r="D90">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>2019</v>
@@ -2168,12 +2180,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>2019</v>
@@ -2182,40 +2194,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>89</v>
       </c>
-      <c r="B93" t="s">
-        <v>90</v>
+      <c r="B93">
+        <v>3</v>
       </c>
       <c r="C93">
         <v>2019</v>
       </c>
       <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>91</v>
       </c>
       <c r="C94">
         <v>2019</v>
       </c>
       <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>2019</v>
@@ -2224,12 +2236,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -2238,12 +2250,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C97">
         <v>2019</v>
@@ -2252,40 +2264,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>44</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C98">
         <v>2019</v>
       </c>
       <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>44</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C99">
         <v>2019</v>
       </c>
       <c r="D99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C100">
         <v>2019</v>
@@ -2294,26 +2306,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C101">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C102">
         <v>2018</v>
@@ -2322,40 +2334,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>2018</v>
       </c>
       <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>2018</v>
       </c>
       <c r="D104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105">
         <v>2018</v>
@@ -2364,26 +2376,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="C106">
         <v>2018</v>
       </c>
       <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C107">
         <v>2018</v>
@@ -2392,54 +2404,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C108">
         <v>2018</v>
       </c>
       <c r="D108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C109">
         <v>2018</v>
       </c>
       <c r="D109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C110">
         <v>2018</v>
       </c>
       <c r="D110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C111">
         <v>2018</v>
@@ -2448,68 +2460,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C112">
         <v>2018</v>
       </c>
       <c r="D112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C113">
         <v>2018</v>
       </c>
       <c r="D113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>2018</v>
       </c>
       <c r="D114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C115">
         <v>2018</v>
       </c>
       <c r="D115">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C116">
         <v>2018</v>
@@ -2518,40 +2530,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C117">
         <v>2018</v>
       </c>
       <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>101</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C118">
         <v>2018</v>
       </c>
       <c r="D118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B119" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C119">
         <v>2018</v>
@@ -2560,40 +2572,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C120">
         <v>2018</v>
       </c>
       <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C121">
         <v>2018</v>
       </c>
       <c r="D121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C122">
         <v>2018</v>
@@ -2602,110 +2614,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C123">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C124">
         <v>2017</v>
       </c>
       <c r="D124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C125">
         <v>2017</v>
       </c>
       <c r="D125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>2017</v>
       </c>
       <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C127">
         <v>2017</v>
       </c>
       <c r="D127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C128">
         <v>2017</v>
       </c>
       <c r="D128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C129">
         <v>2017</v>
       </c>
       <c r="D129">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C130">
         <v>2017</v>
@@ -2714,12 +2726,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C131">
         <v>2017</v>
@@ -2728,26 +2740,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C132">
         <v>2017</v>
       </c>
       <c r="D132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C133">
         <v>2017</v>
@@ -2756,152 +2768,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>75</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C134">
         <v>2017</v>
       </c>
       <c r="D134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>2017</v>
       </c>
       <c r="D135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C136">
         <v>2017</v>
       </c>
       <c r="D136">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C137">
         <v>2017</v>
       </c>
       <c r="D137">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>101</v>
       </c>
       <c r="B138" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C138">
         <v>2017</v>
       </c>
       <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>101</v>
       </c>
       <c r="B139" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C139">
         <v>2017</v>
       </c>
       <c r="D139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C140">
         <v>2017</v>
       </c>
       <c r="D140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>68</v>
-      </c>
-      <c r="B141" t="s">
-        <v>110</v>
+        <v>89</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
       </c>
       <c r="C141">
         <v>2017</v>
       </c>
       <c r="D141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>89</v>
-      </c>
-      <c r="B142">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
       </c>
       <c r="C142">
         <v>2017</v>
       </c>
       <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B143" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C143">
         <v>2017</v>
       </c>
       <c r="D143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B144" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C144">
         <v>2017</v>
@@ -2910,26 +2922,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C145">
         <v>2017</v>
       </c>
       <c r="D145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C146">
         <v>2017</v>
@@ -2938,110 +2950,110 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C147">
         <v>2017</v>
       </c>
       <c r="D147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C148">
         <v>2017</v>
       </c>
       <c r="D148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C149">
         <v>2017</v>
       </c>
       <c r="D149">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C150">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C151">
         <v>2016</v>
       </c>
       <c r="D151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C152">
         <v>2016</v>
       </c>
       <c r="D152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C153">
         <v>2016</v>
       </c>
       <c r="D153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C154">
         <v>2016</v>
@@ -3050,12 +3062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C155">
         <v>2016</v>
@@ -3064,12 +3076,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C156">
         <v>2016</v>
@@ -3078,40 +3090,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C157">
         <v>2016</v>
       </c>
       <c r="D157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C158">
         <v>2016</v>
       </c>
       <c r="D158">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B159" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C159">
         <v>2016</v>
@@ -3120,12 +3132,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C160">
         <v>2016</v>
@@ -3134,26 +3146,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C161">
         <v>2016</v>
       </c>
       <c r="D161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>61</v>
       </c>
       <c r="B162" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C162">
         <v>2016</v>
@@ -3162,68 +3174,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B163" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C163">
         <v>2016</v>
       </c>
       <c r="D163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C164">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D164">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C165">
         <v>2015</v>
       </c>
       <c r="D165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C166">
         <v>2015</v>
       </c>
       <c r="D166">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -3232,12 +3244,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B168" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C168">
         <v>2015</v>
@@ -3246,26 +3258,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B169" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C169">
         <v>2015</v>
       </c>
       <c r="D169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B170" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C170">
         <v>2015</v>
@@ -3274,40 +3286,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C171">
         <v>2015</v>
       </c>
       <c r="D171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="C172">
         <v>2015</v>
       </c>
       <c r="D172">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>68</v>
       </c>
       <c r="B173" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C173">
         <v>2015</v>
@@ -3316,12 +3328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>68</v>
       </c>
       <c r="B174" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C174">
         <v>2015</v>
@@ -3330,12 +3342,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B175" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C175">
         <v>2015</v>
@@ -3344,12 +3356,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>128</v>
       </c>
       <c r="B176" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C176">
         <v>2015</v>
@@ -3358,12 +3370,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B177" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C177">
         <v>2015</v>
@@ -3372,12 +3384,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="B178" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C178">
         <v>2015</v>
@@ -3386,12 +3398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B179" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="C179">
         <v>2015</v>
@@ -3400,12 +3412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B180" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C180">
         <v>2015</v>
@@ -3414,12 +3426,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B181" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="C181">
         <v>2015</v>
@@ -3428,12 +3440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>61</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="C182">
         <v>2015</v>
@@ -3442,12 +3454,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>61</v>
       </c>
       <c r="B183" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C183">
         <v>2015</v>
@@ -3456,12 +3468,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>61</v>
       </c>
       <c r="B184" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C184">
         <v>2015</v>
@@ -3470,12 +3482,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B185" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C185">
         <v>2015</v>
@@ -3484,110 +3496,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C186">
         <v>2015</v>
       </c>
       <c r="D186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C187">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="C188">
         <v>2014</v>
       </c>
       <c r="D188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C189">
         <v>2014</v>
       </c>
       <c r="D189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="C190">
         <v>2014</v>
       </c>
       <c r="D190">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B191" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C191">
         <v>2014</v>
       </c>
       <c r="D191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B192" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C192">
         <v>2014</v>
       </c>
       <c r="D192">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="B193" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C193">
         <v>2014</v>
@@ -3596,40 +3608,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>119</v>
       </c>
       <c r="B194" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C194">
         <v>2014</v>
       </c>
       <c r="D194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="B195" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C195">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C196">
         <v>2013</v>
@@ -3638,12 +3650,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C197">
         <v>2013</v>
@@ -3652,40 +3664,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C198">
         <v>2013</v>
       </c>
       <c r="D198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C199">
         <v>2013</v>
       </c>
       <c r="D199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C200">
         <v>2013</v>
@@ -3694,12 +3706,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B201" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C201">
         <v>2013</v>
@@ -3708,12 +3720,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C202">
         <v>2013</v>
@@ -3722,40 +3734,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C203">
         <v>2013</v>
       </c>
       <c r="D203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C204">
         <v>2013</v>
       </c>
       <c r="D204">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>68</v>
       </c>
       <c r="B205" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C205">
         <v>2013</v>
@@ -3764,40 +3776,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B206" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C206">
         <v>2013</v>
       </c>
       <c r="D206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B207" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C207">
         <v>2013</v>
       </c>
       <c r="D207">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>34</v>
       </c>
       <c r="B208" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C208">
         <v>2013</v>
@@ -3806,124 +3818,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B209" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C209">
         <v>2013</v>
       </c>
       <c r="D209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B210" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="C210">
         <v>2013</v>
       </c>
       <c r="D210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B211" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C211">
         <v>2013</v>
       </c>
       <c r="D211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>61</v>
       </c>
       <c r="B212" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="C212">
         <v>2013</v>
       </c>
       <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213">
+        <v>2012</v>
+      </c>
+      <c r="D213">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>61</v>
-      </c>
-      <c r="B213" t="s">
-        <v>141</v>
-      </c>
-      <c r="C213">
-        <v>2013</v>
-      </c>
-      <c r="D213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C214">
         <v>2012</v>
       </c>
       <c r="D214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C215">
         <v>2012</v>
       </c>
       <c r="D215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C216">
         <v>2012</v>
       </c>
       <c r="D216">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C217">
         <v>2012</v>
@@ -3932,26 +3944,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="C218">
         <v>2012</v>
       </c>
       <c r="D218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B219" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C219">
         <v>2012</v>
@@ -3960,12 +3972,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>68</v>
       </c>
       <c r="B220" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C220">
         <v>2012</v>
@@ -3974,12 +3986,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>68</v>
       </c>
       <c r="B221" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C221">
         <v>2012</v>
@@ -3988,68 +4000,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="B222" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C222">
         <v>2012</v>
       </c>
       <c r="D222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>128</v>
       </c>
       <c r="B223" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C223">
         <v>2012</v>
       </c>
       <c r="D223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>128</v>
       </c>
       <c r="B224" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C224">
         <v>2012</v>
       </c>
       <c r="D224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B225" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="C225">
         <v>2012</v>
       </c>
       <c r="D225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="B226" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="C226">
         <v>2012</v>
@@ -4058,12 +4070,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="B227" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="C227">
         <v>2012</v>
@@ -4072,12 +4084,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C228">
         <v>2012</v>
@@ -4086,12 +4098,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>61</v>
       </c>
       <c r="B229" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C229">
         <v>2012</v>
@@ -4100,12 +4112,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>61</v>
       </c>
       <c r="B230" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C230">
         <v>2012</v>
@@ -4114,12 +4126,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>61</v>
       </c>
       <c r="B231" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C231">
         <v>2012</v>
@@ -4128,26 +4140,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="C232">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C233">
         <v>2011</v>
@@ -4156,12 +4168,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="B234" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C234">
         <v>2011</v>
@@ -4170,12 +4182,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B235" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C235">
         <v>2011</v>
@@ -4184,12 +4196,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="B236" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C236">
         <v>2011</v>
@@ -4198,12 +4210,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B237" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C237">
         <v>2011</v>
@@ -4212,12 +4224,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B238" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C238">
         <v>2011</v>
@@ -4226,40 +4238,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>128</v>
+      </c>
+      <c r="B239" t="s">
+        <v>153</v>
+      </c>
+      <c r="C239">
+        <v>2010</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>75</v>
+      </c>
+      <c r="B240" t="s">
+        <v>161</v>
+      </c>
+      <c r="C240">
+        <v>2009</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>61</v>
       </c>
-      <c r="B239" t="s">
-        <v>160</v>
-      </c>
-      <c r="C239">
-        <v>2011</v>
-      </c>
-      <c r="D239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>128</v>
-      </c>
-      <c r="B240" t="s">
-        <v>153</v>
-      </c>
-      <c r="C240">
-        <v>2010</v>
-      </c>
-      <c r="D240">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>75</v>
-      </c>
       <c r="B241" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C241">
         <v>2009</v>
@@ -4268,68 +4280,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>61</v>
       </c>
       <c r="B242" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C242">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>73</v>
+      </c>
+      <c r="B243" t="s">
+        <v>163</v>
+      </c>
+      <c r="C243">
+        <v>2007</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>61</v>
       </c>
-      <c r="B243" t="s">
-        <v>62</v>
-      </c>
-      <c r="C243">
-        <v>2008</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>73</v>
-      </c>
       <c r="B244" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D245">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C246">
         <v>2005</v>
@@ -4338,49 +4350,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>68</v>
       </c>
       <c r="B247" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C247">
-        <v>2005</v>
+        <v>1991</v>
       </c>
       <c r="D247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="C248">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D248">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>11</v>
-      </c>
-      <c r="B249" t="s">
-        <v>83</v>
-      </c>
-      <c r="C249">
-        <v>1989</v>
-      </c>
-      <c r="D249">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>